--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2104474\OneDrive - DAHER\Documents\WORK\PYTHON\apps\JeuMotsSSIAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="842" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F8864FA-0AE4-471F-8C6B-0DD2F60E5AA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938768F3-0012-4666-BAC6-C78EFEEF7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <definedName name="_e8p5frs5ytai" localSheetId="3">Feuil1!$A$3</definedName>
     <definedName name="_eltq1ml39i8g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_f4und4vdlss2" localSheetId="3">Feuil1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$312</definedName>
     <definedName name="_g0y5qe76r34g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="3">Feuil1!$A$4</definedName>
     <definedName name="_g8ek9utgccwp" localSheetId="3">Feuil1!#REF!</definedName>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1156">
   <si>
     <t>UV</t>
   </si>
@@ -3460,7 +3460,594 @@
     <t>A,D</t>
   </si>
   <si>
-    <t>B,C,D,E</t>
+    <t>A,B,C</t>
+  </si>
+  <si>
+    <t>Quels sont les dispositifs pouvant constituer une A.E.S ?</t>
+  </si>
+  <si>
+    <t>Un groupe électrogène</t>
+  </si>
+  <si>
+    <t>Des batteries d’accumulateurs</t>
+  </si>
+  <si>
+    <t>Le réseau électrique de distribution publique</t>
+  </si>
+  <si>
+    <t>Un onduleur</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un BAPI ?</t>
+  </si>
+  <si>
+    <t>Une borne aménagée pour l’incendie</t>
+  </si>
+  <si>
+    <t>Un balisage autonome particulier et indépendant</t>
+  </si>
+  <si>
+    <t>Bloc autonome portable d’intervention</t>
+  </si>
+  <si>
+    <t>Bloc autonome portable d’investigation</t>
+  </si>
+  <si>
+    <t>L’autonomie d’une source de sécurité en ERP doit :</t>
+  </si>
+  <si>
+    <t>Être suffisante pour alimenter la totalité des installations électriques</t>
+  </si>
+  <si>
+    <t>Être suffisante pour alimenter la totalité des installations de sécurité pendant 1h00 minimum</t>
+  </si>
+  <si>
+    <t>Être suffisante pour alimenter la totalité des installations de remplacement pendant 06h00</t>
+  </si>
+  <si>
+    <t>Être définie dans tous les cas par la commission de sécurité compétente</t>
+  </si>
+  <si>
+    <t>L’accès au TGBT est :</t>
+  </si>
+  <si>
+    <t>Réservé au public</t>
+  </si>
+  <si>
+    <t>Réservé au public si celui-ci est habilité H0B0</t>
+  </si>
+  <si>
+    <t>Interdit aux agents SSIAP</t>
+  </si>
+  <si>
+    <t>Réservé aux personnes qualifiées</t>
+  </si>
+  <si>
+    <t>En ERP les batteries d’accumulateurs doivent être capables de secourir :</t>
+  </si>
+  <si>
+    <t>Les ascenseurs</t>
+  </si>
+  <si>
+    <t>Les systèmes d’alarme et d’alerte</t>
+  </si>
+  <si>
+    <t>Les escaliers mécaniques</t>
+  </si>
+  <si>
+    <t>Quels équipements de sécurité peut-on trouver dans une cabine d’ascenseur ?</t>
+  </si>
+  <si>
+    <t>Un R.I.A</t>
+  </si>
+  <si>
+    <t>Une sonnerie d’appel</t>
+  </si>
+  <si>
+    <t>Une trousse de 1er secours</t>
+  </si>
+  <si>
+    <t>Un éclairage de sécurité</t>
+  </si>
+  <si>
+    <t>Un cendrier</t>
+  </si>
+  <si>
+    <t>Afin d’empêcher les accidents de personnes, quels sont les dispositifs de protection équipant les ascenseurs ?</t>
+  </si>
+  <si>
+    <t>Réducteur de vitesse</t>
+  </si>
+  <si>
+    <t>Système "parachute"</t>
+  </si>
+  <si>
+    <t>Système E.S.P.</t>
+  </si>
+  <si>
+    <t>Système A.B.S.</t>
+  </si>
+  <si>
+    <t>Porte palière avec sécurité anti-pincement</t>
+  </si>
+  <si>
+    <t>Quelle est la caractéristique minimale de la source A d’une installation fixe d’extinction automatique à eau ?</t>
+  </si>
+  <si>
+    <t>Réserve d’eau d’une demi-heure</t>
+  </si>
+  <si>
+    <t>Réserve d’eau d’une heure</t>
+  </si>
+  <si>
+    <t>Réserve d’eau d’une heure et demie</t>
+  </si>
+  <si>
+    <t>Source d’eau potable</t>
+  </si>
+  <si>
+    <t>Quelles vannes d’un poste de contrôle “SPRINKLEUR” sont normalement fermées ?</t>
+  </si>
+  <si>
+    <t>La vanne d’alimentation et la vanne de vidange</t>
+  </si>
+  <si>
+    <t>La vanne d’alimentation et la vanne de cloche</t>
+  </si>
+  <si>
+    <t>La vanne de vidange et la vanne d’essai</t>
+  </si>
+  <si>
+    <t>La vanne d’essai et la vanne de cloche</t>
+  </si>
+  <si>
+    <t>Aucune des vannes</t>
+  </si>
+  <si>
+    <t>Quelle est la caractéristique minimale de la source B d’une installation fixe d’extinction automatique à eau ?</t>
+  </si>
+  <si>
+    <t>Source d’eau dite inépuisable</t>
+  </si>
+  <si>
+    <t>Un poste sprinkler peut surveiller jusqu’à :</t>
+  </si>
+  <si>
+    <t>99 têtes</t>
+  </si>
+  <si>
+    <t>500 têtes</t>
+  </si>
+  <si>
+    <t>1000 têtes</t>
+  </si>
+  <si>
+    <t>10 000 têtes</t>
+  </si>
+  <si>
+    <t>Le(s) quel(s) de ces équipements fait (font) partie d’une installation d’extinction automatique à eau ?</t>
+  </si>
+  <si>
+    <t>Des têtes d’extinction</t>
+  </si>
+  <si>
+    <t>Un réseau de canalisation</t>
+  </si>
+  <si>
+    <t>Un poteau d’incendie</t>
+  </si>
+  <si>
+    <t>Un poste de contrôle</t>
+  </si>
+  <si>
+    <t>Un manomètre enregistreur</t>
+  </si>
+  <si>
+    <t>La couleur rouge de l’ampoule d’une tête d’extinction correspond à une température de rupture de :</t>
+  </si>
+  <si>
+    <t>57 °C</t>
+  </si>
+  <si>
+    <t>68 °C</t>
+  </si>
+  <si>
+    <t>79 °C</t>
+  </si>
+  <si>
+    <t>90 °C</t>
+  </si>
+  <si>
+    <t>Quels sont les agents extincteurs rencontrés dans une Installation Fixe d’Extinction Automatique à Gaz ?</t>
+  </si>
+  <si>
+    <t>L’oxygène</t>
+  </si>
+  <si>
+    <t>Le dioxyde de carbone</t>
+  </si>
+  <si>
+    <t>Les gaz lourds</t>
+  </si>
+  <si>
+    <t>Les agents inhibiteurs</t>
+  </si>
+  <si>
+    <t>Les gaz inertes</t>
+  </si>
+  <si>
+    <t>En IGH, quelle doit être la pression statique à assurer en permanence chaque colonne en charge ?</t>
+  </si>
+  <si>
+    <t>Comprise entre 4 et 6 bars</t>
+  </si>
+  <si>
+    <t>Comprise entre 5 et 7 bars</t>
+  </si>
+  <si>
+    <t>Comprise entre 7 et 9 bars</t>
+  </si>
+  <si>
+    <t>Variable selon le classement</t>
+  </si>
+  <si>
+    <t>Quelles sont les opérations de surveillance à réaliser sur une colonne sèche ?</t>
+  </si>
+  <si>
+    <t>Vérifier la présence des bouchons à chaque niveau</t>
+  </si>
+  <si>
+    <t>Contrôler le bon fonctionnement de la robinetterie</t>
+  </si>
+  <si>
+    <t>S’assurer que le local dans lequel la colonne sèche se trouve est fermé à clé</t>
+  </si>
+  <si>
+    <t>S’assurer du libre accès des raccords d’alimentation</t>
+  </si>
+  <si>
+    <t>Sur l'unité de signalisation qu'indique un voyant jaune fixe ?</t>
+  </si>
+  <si>
+    <t>Un D.A.S. est en dérangement.</t>
+  </si>
+  <si>
+    <t>Un D.A.S. n'est plus en position d'attente.</t>
+  </si>
+  <si>
+    <t>Tous les D.A.S. sont en position d'attente</t>
+  </si>
+  <si>
+    <t>Un D.A.S. est en position de sécurité</t>
+  </si>
+  <si>
+    <t>Tous les D.A.S. sont en position de sécurité.</t>
+  </si>
+  <si>
+    <t>Quelle est la durée minimale de la diffusion de l'alarme générale ?</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Lors de la mise en route de la fonction désenfumage quels D.A.S seront sollicités ?</t>
+  </si>
+  <si>
+    <t>Les volets d'amenée d'air et d'extraction des fumées.</t>
+  </si>
+  <si>
+    <t>Les clapets de ventilation ou de climatisation.</t>
+  </si>
+  <si>
+    <t>La fermeture des portes C.F.</t>
+  </si>
+  <si>
+    <t>Le non-stop des ascenseurs dans la zone concernée.</t>
+  </si>
+  <si>
+    <t>Les coffrets de relayage</t>
+  </si>
+  <si>
+    <t>A quoi sert une U.G.C.I.S ?</t>
+  </si>
+  <si>
+    <t>Centraliser les informations de la détection</t>
+  </si>
+  <si>
+    <t>Commander depuis le PC les organes de sécurité</t>
+  </si>
+  <si>
+    <t>Gérer les issues de secours</t>
+  </si>
+  <si>
+    <t>Visualiser les détections</t>
+  </si>
+  <si>
+    <t>Qu'indique l'Unité de Signalisation lorsqu'un "voyant rouge" clignote?</t>
+  </si>
+  <si>
+    <t>Un défaut de ligne</t>
+  </si>
+  <si>
+    <t>Une zone mise hors service</t>
+  </si>
+  <si>
+    <t>Les Dispositifs Actionnés de Sécurité en position de sécurité</t>
+  </si>
+  <si>
+    <t>Les Dispositifs Actionnés de Sécurité en position d'attente</t>
+  </si>
+  <si>
+    <t>Les lampes de l'unité de signalisation sont défectueuses</t>
+  </si>
+  <si>
+    <t>Dans cette liste, quel(s) élément(s) entre(nt) dans la composition d'un S.S.I. de catégorie A ?</t>
+  </si>
+  <si>
+    <t>L'unité manuelle de commande</t>
+  </si>
+  <si>
+    <t>Le centralisateur de mise en sécurité incendie</t>
+  </si>
+  <si>
+    <t>L'unité de gestion d'alerte</t>
+  </si>
+  <si>
+    <t>Les alimentations électriques de sécurité</t>
+  </si>
+  <si>
+    <t>L'agent de sécurité</t>
+  </si>
+  <si>
+    <t>L'Unité de Gestion d'Alarme</t>
+  </si>
+  <si>
+    <t>En IGH, que se passe-t-il lorsqu'un D.A.I. est sensibilisé dans une circulation horizontale commune?</t>
+  </si>
+  <si>
+    <t>Il ne se passe rien</t>
+  </si>
+  <si>
+    <t>Diffusion d'un message pré enregistré</t>
+  </si>
+  <si>
+    <t>Diffusion de l'alarme générale sonore dans tout le bâtiment</t>
+  </si>
+  <si>
+    <t>Diffusion de l'alarme générale sonore dans le compartiment sinistré</t>
+  </si>
+  <si>
+    <t>Aucune réponse précédente</t>
+  </si>
+  <si>
+    <t>A quel principe de fonctionnement associe-t-on un détecteur thermo vélocimétrique ?</t>
+  </si>
+  <si>
+    <t>À l'élévation de la température dans un temps donné</t>
+  </si>
+  <si>
+    <t>A l'association de l'élévation de température et de fumées</t>
+  </si>
+  <si>
+    <t>A l'association de l'élévation de température et de flammes</t>
+  </si>
+  <si>
+    <t>À l'élévation de la température et détection de vapeurs combustibles</t>
+  </si>
+  <si>
+    <t>En I.G.H, quelles fonctions comporte la mise en sécurité ?</t>
+  </si>
+  <si>
+    <t>Alerte des secours publics</t>
+  </si>
+  <si>
+    <t>Rappel des ascenseurs prioritaires</t>
+  </si>
+  <si>
+    <t>Compartimentage</t>
+  </si>
+  <si>
+    <t>Désenfumage</t>
+  </si>
+  <si>
+    <t>Quel est la fonction de l’ECS ou TS ?</t>
+  </si>
+  <si>
+    <t>De collecter les informations provenant des DAS et de nous informer de leur état</t>
+  </si>
+  <si>
+    <t>De mettre en sécurité le bâtiment</t>
+  </si>
+  <si>
+    <t>De collecter les informations provenant des détecteurs et de nous informer de leur état</t>
+  </si>
+  <si>
+    <t>Quels sont les éléments composant un SMSI ?</t>
+  </si>
+  <si>
+    <t>Un SDI</t>
+  </si>
+  <si>
+    <t>Un ou plusieurs DAS</t>
+  </si>
+  <si>
+    <t>Un ou plusieurs DM</t>
+  </si>
+  <si>
+    <t>Un CMSI</t>
+  </si>
+  <si>
+    <t>Un ou plusieurs DAI</t>
+  </si>
+  <si>
+    <t>Quels éléments peuvent entrer dans la composition d’un SMSI ?</t>
+  </si>
+  <si>
+    <t>Des DAS</t>
+  </si>
+  <si>
+    <t>Une AES</t>
+  </si>
+  <si>
+    <t>Aucune des réponses</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’une U.A.E ?</t>
+  </si>
+  <si>
+    <t>Une Unité d’Aide à l’Entraînement</t>
+  </si>
+  <si>
+    <t>Une Unité d’Assistance à l’Exploitation</t>
+  </si>
+  <si>
+    <t>Une Unité Assistée d’Évacuation</t>
+  </si>
+  <si>
+    <t>Une Unité d’Aide à l’Exploitation</t>
+  </si>
+  <si>
+    <t>Quels sont les DAS qui participent à la fonction de désenfumage ?</t>
+  </si>
+  <si>
+    <t>Les volets de désenfumage</t>
+  </si>
+  <si>
+    <t>Les clapets coupe-feu</t>
+  </si>
+  <si>
+    <t>Les exutoires</t>
+  </si>
+  <si>
+    <t>Les diffuseurs sonores</t>
+  </si>
+  <si>
+    <t>Les ouvrants en façade</t>
+  </si>
+  <si>
+    <t>Les portes coupe-feu</t>
+  </si>
+  <si>
+    <t>Qu’est-ce que l’alarme restreinte ?</t>
+  </si>
+  <si>
+    <t>Un signal direct au centre d’incendie et de secours</t>
+  </si>
+  <si>
+    <t>Un signal d’évacuation qui prévient les occupants</t>
+  </si>
+  <si>
+    <t>Un appel téléphonique au chef d’établissement</t>
+  </si>
+  <si>
+    <t>Un dispositif de communication entre les agents de sécurité</t>
+  </si>
+  <si>
+    <t>En ERP, on trouve des D.M dans un S.S.I de catégorie :</t>
+  </si>
+  <si>
+    <t>Quel est le niveau d’accès pour effectuer un réarmement sur le SSI ?</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 0</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 1</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 2</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 3</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 4</t>
+  </si>
+  <si>
+    <t>Niveau d’accès 5</t>
+  </si>
+  <si>
+    <t>Lors de la mise en route de la fonction désenfumage quels DAS seront sollicités ?</t>
+  </si>
+  <si>
+    <t>Les volets d’amenée d’air et d’extraction des fumées</t>
+  </si>
+  <si>
+    <t>Les clapets de ventilation ou de climatisation</t>
+  </si>
+  <si>
+    <t>La fermeture des portes C.F</t>
+  </si>
+  <si>
+    <t>Le non-stop des ascenseurs dans la zone concernée</t>
+  </si>
+  <si>
+    <t>À quoi sert une U.C.M.C ?</t>
+  </si>
+  <si>
+    <t>Commander depuis le C.M.S.I les dispositifs actionnés de sécurité</t>
+  </si>
+  <si>
+    <t>Dans quelles catégories de S.S.I trouve-t-on un C.M.S.I ?</t>
+  </si>
+  <si>
+    <t>Catégorie A</t>
+  </si>
+  <si>
+    <t>Catégorie B</t>
+  </si>
+  <si>
+    <t>Catégorie C</t>
+  </si>
+  <si>
+    <t>Catégorie D</t>
+  </si>
+  <si>
+    <t>Catégorie E</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Lorsqu’un feu se déclare dans une circulation horizontale commune d’un IGH, plusieurs mises en sécurité automatiques sont déclenchées par le SSI de catégorie A, option IGH, conformément à la réglementation (arrêté du 30 décembre 2011 et instructions techniques) : détection → désenfumage → fermeture des portes coupe-feu → déverrouillage des accès → alarme → possibilité de commande manuelle</t>
+  </si>
+  <si>
+    <t>La sensibilisation d’un D.A.I. dans une circulation horizontale commune déclenche le scénario de mise en sécurité du compartiment concerné, qui comprend : Déclenchement de l’alarme incendie dans la zone concernée (diffusion limitée au compartiment), Activation du désenfumage, Fermeture des portes coupe-feu, Déverrouillage des dispositifs de contrôle d’accès, Transmission de l’information au CMSI</t>
+  </si>
+  <si>
+    <t>Dans un dispositif d’intercommunication (zone tampon entre l’escalier et le compartiment d’un IGH), le plan du niveau affiché dans cette zone doit indiquer clairement :
+L’emplacement du dispositif d’intercommunication lui-même (où se trouve la zone tampon).
+L’emplacement des escaliers protégés (issues verticales).
+L’emplacement des sorties vers les compartiments.
+Les itinéraires d’évacuation (cheminement vers les escaliers).
+Les dispositifs de sécurité (ex. : commandes manuelles, extincteurs, déclencheurs manuels d’alarme).</t>
+  </si>
+  <si>
+    <t>B,E</t>
+  </si>
+  <si>
+    <t>A,B,E,F</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>B,D,F</t>
   </si>
 </sst>
 </file>
@@ -3571,7 +4158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3593,6 +4180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3625,7 +4218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3669,6 +4262,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4807,13 +5403,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,7 +7420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>236</v>
       </c>
@@ -6856,7 +7452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>236</v>
       </c>
@@ -6885,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>236</v>
       </c>
@@ -6914,7 +7510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>236</v>
       </c>
@@ -6943,7 +7539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>236</v>
       </c>
@@ -6971,11 +7567,14 @@
       <c r="I69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>236</v>
       </c>
@@ -7004,7 +7603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>236</v>
       </c>
@@ -7033,7 +7632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>236</v>
       </c>
@@ -7062,7 +7661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>236</v>
       </c>
@@ -7091,7 +7690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>236</v>
       </c>
@@ -7120,7 +7719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>236</v>
       </c>
@@ -7149,7 +7748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>236</v>
       </c>
@@ -7174,11 +7773,14 @@
       <c r="H76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>236</v>
       </c>
@@ -7207,7 +7809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>236</v>
       </c>
@@ -7235,11 +7837,14 @@
       <c r="I78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>236</v>
       </c>
@@ -7268,7 +7873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>41</v>
       </c>
@@ -7303,7 +7908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>41</v>
       </c>
@@ -7331,11 +7936,14 @@
       <c r="I81" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>41</v>
       </c>
@@ -7364,7 +7972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>41</v>
       </c>
@@ -7393,7 +8001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>41</v>
       </c>
@@ -7425,7 +8033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>41</v>
       </c>
@@ -7457,7 +8065,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>41</v>
       </c>
@@ -7489,7 +8097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>41</v>
       </c>
@@ -7521,7 +8129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>41</v>
       </c>
@@ -7550,7 +8158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>41</v>
       </c>
@@ -7579,7 +8187,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>41</v>
       </c>
@@ -7608,7 +8216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>41</v>
       </c>
@@ -7640,7 +8248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
@@ -7669,8 +8277,1100 @@
         <v>16</v>
       </c>
     </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K316" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K312" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -7721,7 +9421,7 @@
   <dimension ref="A1:E993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7916,11 +9616,11 @@
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Les installations électriques (0 questions)</v>
+        <v>Les installations électriques (16 questions)</v>
       </c>
       <c r="D10" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A10)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A10,4)&amp;"]*")</f>
@@ -7936,11 +9636,11 @@
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Le S.S.I. (0 questions)</v>
+        <v>Le S.S.I. (20 questions)</v>
       </c>
       <c r="D11" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A11)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A11,4)&amp;"]*")</f>
@@ -8997,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D108" sqref="D46:K108"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153:E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2104474\OneDrive - DAHER\Documents\WORK\PYTHON\apps\JeuMotsSSIAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938768F3-0012-4666-BAC6-C78EFEEF7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1157">
   <si>
     <t>UV</t>
   </si>
@@ -4048,6 +4048,9 @@
   </si>
   <si>
     <t>B,D,F</t>
+  </si>
+  <si>
+    <t>nb_questions_exam</t>
   </si>
 </sst>
 </file>
@@ -9418,22 +9421,21 @@
     <tabColor rgb="FF00B0F0"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E993"/>
+  <dimension ref="A1:F993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="8"/>
+    <col min="2" max="2" width="31" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="14.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9441,274 +9443,313 @@
         <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="8" t="str">
-        <f t="shared" ref="C2:C13" si="0">B2 &amp; " (" &amp; D2 &amp; " questions)"</f>
-        <v>Le Feu (14 questions)</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>B2 &amp; " (" &amp; E2 &amp; " questions) --- " &amp; C2 &amp; " questions à l'examen"</f>
+        <v>Le Feu (14 questions) --- 4 questions à l'examen</v>
+      </c>
+      <c r="E2" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A2)</f>
         <v>14</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A2,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Le Feu (9 questions)</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D12" si="0">B3 &amp; " (" &amp; E3 &amp; " questions) --- " &amp; C3 &amp; " questions à l'examen"</f>
+        <v>Le Feu (9 questions) --- 4 questions à l'examen</v>
+      </c>
+      <c r="E3" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A3)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A3,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Classement des ERP (6 questions)</v>
-      </c>
-      <c r="D4" s="8">
+        <v>Classement des ERP (6 questions) --- 1 questions à l'examen</v>
+      </c>
+      <c r="E4" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A4,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Classement des IGH (7 questions)</v>
-      </c>
-      <c r="D5" s="8">
+        <v>Classement des IGH (7 questions) --- 1 questions à l'examen</v>
+      </c>
+      <c r="E5" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A5)</f>
         <v>7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A5,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Sécurité incendie en ERP (14 questions)</v>
-      </c>
-      <c r="D6" s="8">
+        <v>Sécurité incendie en ERP (14 questions) --- 5 questions à l'examen</v>
+      </c>
+      <c r="E6" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A6)</f>
         <v>14</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A6,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Sécurité incendie en ERP (12 questions)</v>
-      </c>
-      <c r="D7" s="8">
+        <v>Sécurité incendie en ERP (12 questions) --- 5 questions à l'examen</v>
+      </c>
+      <c r="E7" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A7)</f>
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A7,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Sécurité incendie en IGH (16 questions)</v>
-      </c>
-      <c r="D8" s="8">
+        <v>Sécurité incendie en IGH (16 questions) --- 3 questions à l'examen</v>
+      </c>
+      <c r="E8" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A8)</f>
         <v>16</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A8,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Les moyens de secours (13 questions)</v>
-      </c>
-      <c r="D9" s="8">
+        <v>Les moyens de secours (13 questions) --- 4 questions à l'examen</v>
+      </c>
+      <c r="E9" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A9)</f>
         <v>13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A9,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Les installations électriques (16 questions)</v>
-      </c>
-      <c r="D10" s="8">
+        <v>Les installations électriques (16 questions) --- 3 questions à l'examen</v>
+      </c>
+      <c r="E10" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A10)</f>
         <v>16</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A10,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Le S.S.I. (20 questions)</v>
-      </c>
-      <c r="D11" s="8">
+        <v>Le S.S.I. (20 questions) --- 4 questions à l'examen</v>
+      </c>
+      <c r="E11" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A11)</f>
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A11,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Rôles et missions des agents (0 questions)</v>
-      </c>
-      <c r="D12" s="8">
+        <v>Rôles et missions des agents (0 questions) --- 5 questions à l'examen</v>
+      </c>
+      <c r="E12" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A12,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ref="D2:D13" si="1">B13 &amp; " (" &amp; E13 &amp; " questions)"</f>
         <v xml:space="preserve"> (0 questions)</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A13,4)&amp;"]*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10697,8 +10738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153:E194"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14080,7 +14121,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>567</v>
       </c>
       <c r="B111" s="7">
@@ -14112,7 +14153,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="15" t="s">
         <v>568</v>
       </c>
       <c r="B112" s="7">
@@ -14144,7 +14185,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>569</v>
       </c>
       <c r="B113" s="7">
@@ -14176,7 +14217,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>570</v>
       </c>
       <c r="B114" s="7">
@@ -14208,7 +14249,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>571</v>
       </c>
       <c r="B115" s="7">
@@ -14257,7 +14298,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>573</v>
       </c>
       <c r="B117" s="7">
@@ -14292,7 +14333,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>574</v>
       </c>
       <c r="B118" s="7">
@@ -14344,7 +14385,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>576</v>
       </c>
       <c r="B120" s="7">
@@ -14376,7 +14417,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>577</v>
       </c>
       <c r="B121" s="7">
@@ -14411,7 +14452,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>578</v>
       </c>
       <c r="B122" s="7">
@@ -14440,7 +14481,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>579</v>
       </c>
       <c r="B123" s="7">
@@ -14472,7 +14513,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>580</v>
       </c>
       <c r="B124" s="7">
@@ -14510,7 +14551,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>581</v>
       </c>
       <c r="B125" s="7">
@@ -14542,7 +14583,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>582</v>
       </c>
       <c r="B126" s="7">
@@ -14594,7 +14635,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="15" t="s">
         <v>584</v>
       </c>
       <c r="B128" s="7">
@@ -14626,7 +14667,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>585</v>
       </c>
       <c r="B129" s="7">
@@ -14675,7 +14716,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>587</v>
       </c>
       <c r="B131" s="7">
@@ -14710,7 +14751,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="15" t="s">
         <v>588</v>
       </c>
       <c r="B132" s="7">
@@ -14742,7 +14783,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="15" t="s">
         <v>589</v>
       </c>
       <c r="B133" s="7">
@@ -14777,7 +14818,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="15" t="s">
         <v>590</v>
       </c>
       <c r="B134" s="7">
@@ -14809,7 +14850,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="15" t="s">
         <v>591</v>
       </c>
       <c r="B135" s="7">
@@ -14844,7 +14885,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>592</v>
       </c>
       <c r="B136" s="7">
@@ -14882,7 +14923,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="15" t="s">
         <v>593</v>
       </c>
       <c r="B137" s="7">
@@ -14914,7 +14955,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="15" t="s">
         <v>594</v>
       </c>
       <c r="B138" s="7">
@@ -14946,7 +14987,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="15" t="s">
         <v>595</v>
       </c>
       <c r="B139" s="7">
@@ -14978,7 +15019,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="15" t="s">
         <v>596</v>
       </c>
       <c r="B140" s="7">
@@ -15007,7 +15048,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="15" t="s">
         <v>597</v>
       </c>
       <c r="B141" s="7">
@@ -15042,7 +15083,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="15" t="s">
         <v>598</v>
       </c>
       <c r="B142" s="7">
@@ -15074,7 +15115,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="15" t="s">
         <v>599</v>
       </c>
       <c r="B143" s="7">
@@ -15106,7 +15147,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="15" t="s">
         <v>600</v>
       </c>
       <c r="B144" s="7">
@@ -15144,7 +15185,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="15" t="s">
         <v>601</v>
       </c>
       <c r="B145" s="7">
@@ -15176,7 +15217,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="15" t="s">
         <v>602</v>
       </c>
       <c r="B146" s="7">
@@ -15208,7 +15249,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="15" t="s">
         <v>603</v>
       </c>
       <c r="B147" s="7">
@@ -15246,7 +15287,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="15" t="s">
         <v>604</v>
       </c>
       <c r="B148" s="7">
@@ -15281,7 +15322,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="15" t="s">
         <v>605</v>
       </c>
       <c r="B149" s="7">
@@ -15313,7 +15354,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="15" t="s">
         <v>606</v>
       </c>
       <c r="B150" s="7">

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2104474\OneDrive - DAHER\Documents\WORK\PYTHON\apps\JeuMotsSSIAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D90EC8-39F8-4CFB-8FE9-E28C219A493E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <definedName name="_e8p5frs5ytai" localSheetId="3">Feuil1!$A$3</definedName>
     <definedName name="_eltq1ml39i8g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_f4und4vdlss2" localSheetId="3">Feuil1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$311</definedName>
     <definedName name="_g0y5qe76r34g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="3">Feuil1!$A$4</definedName>
     <definedName name="_g8ek9utgccwp" localSheetId="3">Feuil1!#REF!</definedName>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1203">
   <si>
     <t>UV</t>
   </si>
@@ -1541,9 +1541,6 @@
     </r>
   </si>
   <si>
-    <t>Comentaire</t>
-  </si>
-  <si>
     <t>A,C</t>
   </si>
   <si>
@@ -1553,16 +1550,9 @@
     <t>C’est la règle du 311 : murs et plafonds M1, sols M3.</t>
   </si>
   <si>
-    <t>Elle concerne les structures (poteaux, murs, planchers, portes), pas les meubles ou objets.</t>
-  </si>
-  <si>
     <t>A,B,C,E</t>
   </si>
   <si>
-    <t>SF, PF, CF = ancien système français
-REI = système européen (R = portance, E = étanchéité, I = isolation)</t>
-  </si>
-  <si>
     <t>B,C</t>
   </si>
   <si>
@@ -1576,9 +1566,6 @@
   </si>
   <si>
     <t>M0</t>
-  </si>
-  <si>
-    <t>Les revêtements (murs, sols, plafonds) doivent respecter des exigences de réaction au feu (M1, M2, M3 selon zones). Le gros mobilier est défini comme étant le mobilier constituant l'agencement principal. Il comprend ainsi les comptoirs d'accueil, bars, rayonnages, cloisonnements… Pour les ERP des catégories 1 à 4, le gros mobilier doit être en matériau de catégorie M3 (moyennement inflammable)</t>
   </si>
   <si>
     <t>[1] Le feu (4)</t>
@@ -3973,21 +3960,6 @@
     <t>Niveau d’accès 5</t>
   </si>
   <si>
-    <t>Lors de la mise en route de la fonction désenfumage quels DAS seront sollicités ?</t>
-  </si>
-  <si>
-    <t>Les volets d’amenée d’air et d’extraction des fumées</t>
-  </si>
-  <si>
-    <t>Les clapets de ventilation ou de climatisation</t>
-  </si>
-  <si>
-    <t>La fermeture des portes C.F</t>
-  </si>
-  <si>
-    <t>Le non-stop des ascenseurs dans la zone concernée</t>
-  </si>
-  <si>
     <t>À quoi sert une U.C.M.C ?</t>
   </si>
   <si>
@@ -4019,9 +3991,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>Lorsqu’un feu se déclare dans une circulation horizontale commune d’un IGH, plusieurs mises en sécurité automatiques sont déclenchées par le SSI de catégorie A, option IGH, conformément à la réglementation (arrêté du 30 décembre 2011 et instructions techniques) : détection → désenfumage → fermeture des portes coupe-feu → déverrouillage des accès → alarme → possibilité de commande manuelle</t>
@@ -4052,12 +4021,211 @@
   <si>
     <t>nb_questions_exam</t>
   </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Les combustibles solides (ex. bois, charbon) produisent des braises après combustion, contrairement aux liquides ou gaz.</t>
+  </si>
+  <si>
+    <t>Le triangle du feu = combustible + comburant + énergie d’activation (source de chaleur).</t>
+  </si>
+  <si>
+    <t>Le comburant est la substance qui permet la combustion : l’oxygène est le principal comburant.</t>
+  </si>
+  <si>
+    <t>L’oxygène est le comburant par excellence ; propane, huile, essence sont des combustibles.</t>
+  </si>
+  <si>
+    <t>La combustion libère de la chaleur → réaction exothermique.</t>
+  </si>
+  <si>
+    <t>Causes fréquentes : phénomènes naturels (foudre), erreurs humaines, défaillances techniques.</t>
+  </si>
+  <si>
+    <t>Origines courantes : humaine (négligence), naturelle (foudre), électrique (court-circuit).</t>
+  </si>
+  <si>
+    <t>Classification des feux (A, B, C) dépend de l’état physique du combustible.</t>
+  </si>
+  <si>
+    <t>Feux de métaux (classe D) : aluminium, sodium, magnésium.</t>
+  </si>
+  <si>
+    <t>Feux de liquides inflammables ou solides liquéfiables → classe B.</t>
+  </si>
+  <si>
+    <t>La convection = transfert par mouvement des gaz chauds (air).</t>
+  </si>
+  <si>
+    <t>Le rayonnement = transfert par ondes (infrarouges).</t>
+  </si>
+  <si>
+    <t>La conduction = transfert à travers la matière solide.</t>
+  </si>
+  <si>
+    <t>Propagation par rayonnement, conduction, convection et projections incandescentes.</t>
+  </si>
+  <si>
+    <t>La résistance au feu est le temps durant lequel l'élément de construction joue son rôle de limitation de la propagation. Elle concerne les structures (poteaux, murs, planchers, portes), pas les meubles ou objets.</t>
+  </si>
+  <si>
+    <t>La réaction au feu est la représentation d'un matériau en tant qu'aliment du feu (combustibilité, inflammabilité). 
+En France, la réaction au feu des matériaux est définie par l'arrêté du 21 novembre 2002[1]. Cet arrêté différencie 2 types de matériaux, les produits de construction et les matériaux d'aménagement. 
+Les revêtements (murs, sols, plafonds) doivent respecter des exigences de réaction au feu (M1, M2, M3 selon zones). 
+Le gros mobilier est défini comme étant le mobilier constituant l'agencement principal. Il comprend ainsi les comptoirs d'accueil, bars, rayonnages, cloisonnements… Pour les ERP des catégories 1 à 4, le gros mobilier doit être en matériau de catégorie M3 (moyennement inflammable)</t>
+  </si>
+  <si>
+    <t>SF, PF, CF = ancien système français
+REI = système européen (R = résistance mécanique ou stabilité, E = étanchéité aux gaz et flammes, I = isolation thermique)</t>
+  </si>
+  <si>
+    <t>Type OA = établissements d’hébergement en altitude (ex. hôtels situés en montagne).</t>
+  </si>
+  <si>
+    <t>Type PA = établissements recevant du public en plein air (ex. stades, parcs), pas un parc automobile ni un stand de tir.</t>
+  </si>
+  <si>
+    <t>ERP = tout bâtiment ou espace recevant du public (parc d’exposition, salle de spectacle). Un train ou dépôt de gaz ne sont pas ERP.</t>
+  </si>
+  <si>
+    <t>Cet arrêté fixe les règles de sécurité incendie pour les ERP du 1er groupe (types J, U, etc.).</t>
+  </si>
+  <si>
+    <t>Type J = établissements d’accueil pour personnes âgées ou handicapées. 
+308 personnes → 3ème catégorie (301 à 700 personnes).</t>
+  </si>
+  <si>
+    <t>La catégorie dépend de la capacité d’accueil (effectif), pas du nombre d’étages ou de locaux.</t>
+  </si>
+  <si>
+    <t>Les IGH de bureaux sont classés en GHW1 ou GHW2 selon leur hauteur et configuration.</t>
+  </si>
+  <si>
+    <t>La définition d’un IGH repose sur la hauteur du plancher bas du dernier niveau par rapport au sol.</t>
+  </si>
+  <si>
+    <t>GH S = immeuble de grande hauteur destiné à l’archivage.</t>
+  </si>
+  <si>
+    <t>Seuils réglementaires : 50 m pour habitation, 28 m pour autres usages.</t>
+  </si>
+  <si>
+    <t>18 m &lt; 28 m → ce n’est pas un IGH, donc aucune classification GH ne s’applique.</t>
+  </si>
+  <si>
+    <t>• G.H.A. : immeubles à usage d'habitation ; 
+• G.H.O. : immeubles à usage d'hôtel ; 
+• G.H.R. : immeubles à usage d'enseignement ; 
+• G.H.S. : immeubles à usage de dépôts d'archives ; 
+• G.H.U. : immeubles à usage sanitaire ; 
+• G.H.W.1. : immeubles à usage de bureaux 28 m &lt; PBDN ≤ 50 m ; 
+• G.H.W.2. : immeubles à usage de bureaux PBDN &gt; 50 m.</t>
+  </si>
+  <si>
+    <t>Règlement ERP → priorité à l’évacuation, la limitation du feu, et l’intervention rapide des secours.</t>
+  </si>
+  <si>
+    <t>Article CO 7 → isolement minimal de 8 m lors de façades dominantes.</t>
+  </si>
+  <si>
+    <t>Règlement ERP → baies facilitent accès aux secours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espaces libres réglementés pour accès véhicules secours. </t>
+  </si>
+  <si>
+    <t>Articles CO 23–26 → trois méthodes réglementaires.</t>
+  </si>
+  <si>
+    <t>Article CO 27 : Les locaux sont classés suivant les risques qu'ils présentent en :
+Locaux à risques particuliers, qui se subdivisent en :
+- locaux à risques importants ;
+- locaux à risques moyens.
+Locaux à risques courants, auxquels sont assimilés les logements du personnel situés dans l'établissement.</t>
+  </si>
+  <si>
+    <t>Article PE 9 : Locaux présentant des risques particuliers
+§ 1. [...]Sont notamment considérés comme locaux à risques particuliers les locaux réceptacles des vide-ordures, les locaux d'extraction de la VMC inversée, les locaux contenant des groupes électrogènes, les postes de livraison et de transformation, les cellules à haute tension, les dépôts d'archives et les réserves.</t>
+  </si>
+  <si>
+    <t>Règlement et normes imposent signalisation et fermeture automatique.</t>
+  </si>
+  <si>
+    <t>Article CO 34 § 2 : 4 types de dégagements : 
+Normaux : imposés par la réglementation.
+Accessoires : ajoutés si la répartition des dégagements est inadaptée.
+De secours : non utilisés en fonctionnement habituel.
+Supplémentaires : ajoutés volontairement pour renforcer la sécurité.</t>
+  </si>
+  <si>
+    <t>Article CO 52 → Protection des escaliers et des ascenseurs
+§ 1. La protection des escaliers et des ascenseurs par encloisonnement ou par ouverture à l'air libre de la cage s'oppose à la propagation du feu vers les étages supérieurs et permet l'évacuation des personnes à l'abri des fumées et des gaz. 
+Article CO 53 → Escaliers et ascenseurs encloisonnés
+§ 1. L'encloisonnement d'un escalier ou d'un ascenseur est constitué par une cage continue jusqu'au niveau d'évacuation vers l'extérieur.
+[...] L'escalier encloisonné doit être maintenu à l'abri de la fumée ou désenfumé dans les conditions prévues par l'instruction technique relative au désenfumage dans les établissements recevant du public.</t>
+  </si>
+  <si>
+    <t>Largeur type de I'UP = 0.60 m (à partir de 3U)</t>
+  </si>
+  <si>
+    <t>2 UP = 1,40 m. (portée de 1,20 à 1,40m)</t>
+  </si>
+  <si>
+    <t>1 UP = 0,90 m. (portée de 0,60 à 0,90m)</t>
+  </si>
+  <si>
+    <t>Un dégagement est toute partie d'un bâtiment conçue pour permettre l'évacuation du public et des occupants : porte, couloir, escalier, issue, rampe…</t>
+  </si>
+  <si>
+    <t>Le désenfumage est une technique indispensable:. elle vise à évacuer les fumées et les gaz de combustion, à maintenir un environnement plus respirable et visible pour les occupants et les secours, et à ralentir la propagation de l'incendie.</t>
+  </si>
+  <si>
+    <t>Lorsqu'un incendie se déclare, la chaleur déclenche un mécanisme de fermeture automatique du clapet coupe-feu. Ce mécanisme peut être basé sur un fusible thermique, une commande électrique ou un détecteur de fumée. Une fois activé, le clapet se referme hermétiquement, empêchant ainsi la propagation du feu et de la fumée</t>
+  </si>
+  <si>
+    <t>Conduit = passage de fluides dans bâtiments.</t>
+  </si>
+  <si>
+    <t>Gaine = enveloppe de conduit accessible.</t>
+  </si>
+  <si>
+    <t>Seuls SSIAP et pompiers sont autorisés à déclencher manuellement. Les "témoins" non habilités n’y sont pas autorisés.</t>
+  </si>
+  <si>
+    <t>Il existe deux modes de désenfumage (naturel et mécanique) et plusieurs combinaisons :
+Naturel – Naturel : amenée d’air basse naturelle (clapet…) et extraction haute naturelle (exutoire, ouvrant de façade…).
+Naturel – Mécanique : amenée d’air basse naturelle (clapet…) et extraction haute mécanique (volet d’extraction des fumées avec ventilation).
+Mécanique – Mécanique : Amenée d’air mécanique et extraction mécanique (colonne de ventilation).</t>
+  </si>
+  <si>
+    <t>La commande doit être accessible rapidement aux secours, généralement au pied de l’escalier.</t>
+  </si>
+  <si>
+    <t>L’éclairage de sécurité = éclairage d’évacuation + anti-panique (pour éviter la panique dans les grands locaux).</t>
+  </si>
+  <si>
+    <t>Les BAES doivent avoir une autonomie de fonctionnement d'1 heure minimum (article EC7) pour les ERP.</t>
+  </si>
+  <si>
+    <t>Dispositif d’éclairage indépendant pour assurer la sécurité en cas de coupure.</t>
+  </si>
+  <si>
+    <t>Deux fonctions : guider l’évacuation et éviter la panique dans les zones vastes.</t>
+  </si>
+  <si>
+    <t>Ces voyants vous indiquent l’état de votre bloc de secours par le Système d’Auto Test Intégré ( S.A.T.I. ) : 
+- un voyant vert fixe correspond à aucun défaut constaté ; 
+- vert clignotant que les batteries se rechargent, 
+- orange fixe à un défaut batterie, 
+- orange clignotant à un défaut des lampes ou un défaut électronique (selon les marques la partie orange peut être inversée).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4069,11 +4237,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4160,6 +4330,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4221,7 +4398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4267,6 +4444,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -5406,13 +5586,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,7 +5641,7 @@
         <v>433</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>445</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5492,6 +5672,9 @@
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -5527,6 +5710,9 @@
       <c r="K3" s="6" t="s">
         <v>434</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5559,6 +5745,9 @@
       <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>1150</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -5591,6 +5780,9 @@
       <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -5623,6 +5815,9 @@
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5655,6 +5850,9 @@
       <c r="K7" s="6" t="s">
         <v>435</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -5687,6 +5885,9 @@
       <c r="K8" s="6" t="s">
         <v>434</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -5716,6 +5917,9 @@
       <c r="K9" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -5745,6 +5949,9 @@
       <c r="K10" s="6" t="s">
         <v>436</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -5777,6 +5984,9 @@
       <c r="K11" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -5806,6 +6016,9 @@
       <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="L12" s="2" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -5838,6 +6051,9 @@
       <c r="K13" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L13" s="2" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -5867,6 +6083,9 @@
       <c r="K14" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -5902,6 +6121,9 @@
       <c r="K15" s="6" t="s">
         <v>438</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -6022,7 +6244,7 @@
         <v>339</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>340</v>
@@ -6098,7 +6320,7 @@
         <v>435</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>457</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6133,10 +6355,10 @@
         <v>29</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -6168,7 +6390,7 @@
         <v>10</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>449</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6200,10 +6422,10 @@
         <v>29</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>451</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6234,6 +6456,9 @@
       <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="L25" s="2" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -6260,6 +6485,9 @@
       <c r="K26" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L26" s="2" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -6290,7 +6518,10 @@
         <v>29</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -6324,6 +6555,9 @@
       <c r="K28" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="L28" s="2" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -6357,7 +6591,10 @@
         <v>29</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -6388,6 +6625,9 @@
       <c r="K30" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="L30" s="2" t="s">
+        <v>1170</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -6415,7 +6655,10 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -6446,8 +6689,11 @@
       <c r="K32" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -6475,8 +6721,11 @@
       <c r="K33" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -6499,10 +6748,13 @@
         <v>29</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -6530,8 +6782,11 @@
       <c r="K35" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -6559,8 +6814,11 @@
       <c r="K36" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -6588,8 +6846,11 @@
       <c r="K37" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>234</v>
       </c>
@@ -6597,22 +6858,22 @@
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>29</v>
@@ -6620,8 +6881,11 @@
       <c r="K38" s="6" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>234</v>
       </c>
@@ -6629,19 +6893,19 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>29</v>
@@ -6649,8 +6913,11 @@
       <c r="K39" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>234</v>
       </c>
@@ -6658,22 +6925,22 @@
         <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>29</v>
@@ -6681,8 +6948,11 @@
       <c r="K40" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>234</v>
       </c>
@@ -6690,19 +6960,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>29</v>
@@ -6710,8 +6980,11 @@
       <c r="K41" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>234</v>
       </c>
@@ -6719,19 +6992,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>29</v>
@@ -6739,8 +7012,11 @@
       <c r="K42" s="6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>234</v>
       </c>
@@ -6748,22 +7024,22 @@
         <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>29</v>
@@ -6771,8 +7047,11 @@
       <c r="K43" s="6" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>234</v>
       </c>
@@ -6780,19 +7059,19 @@
         <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>29</v>
@@ -6800,8 +7079,11 @@
       <c r="K44" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>234</v>
       </c>
@@ -6809,28 +7091,31 @@
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>234</v>
       </c>
@@ -6838,34 +7123,37 @@
         <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="H46" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>234</v>
       </c>
@@ -6873,22 +7161,22 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>29</v>
@@ -6896,8 +7184,11 @@
       <c r="K47" s="6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>234</v>
       </c>
@@ -6905,22 +7196,22 @@
         <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>29</v>
@@ -6928,8 +7219,11 @@
       <c r="K48" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>234</v>
       </c>
@@ -6937,22 +7231,22 @@
         <v>25</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>29</v>
@@ -6960,8 +7254,11 @@
       <c r="K49" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>234</v>
       </c>
@@ -6969,22 +7266,22 @@
         <v>26</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>29</v>
@@ -6992,8 +7289,11 @@
       <c r="K50" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>234</v>
       </c>
@@ -7001,28 +7301,31 @@
         <v>27</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>235</v>
       </c>
@@ -7030,28 +7333,31 @@
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>235</v>
       </c>
@@ -7059,19 +7365,19 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>29</v>
@@ -7079,8 +7385,11 @@
       <c r="K53" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>235</v>
       </c>
@@ -7088,19 +7397,19 @@
         <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>29</v>
@@ -7108,8 +7417,11 @@
       <c r="K54" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>235</v>
       </c>
@@ -7117,19 +7429,19 @@
         <v>14</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>29</v>
@@ -7137,40 +7449,46 @@
       <c r="K55" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="H56" s="17" t="s">
         <v>764</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>235</v>
       </c>
@@ -7178,31 +7496,34 @@
         <v>17</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>235</v>
       </c>
@@ -7210,19 +7531,19 @@
         <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>29</v>
@@ -7230,8 +7551,11 @@
       <c r="K58" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>235</v>
       </c>
@@ -7239,34 +7563,37 @@
         <v>20</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>235</v>
       </c>
@@ -7274,22 +7601,22 @@
         <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>29</v>
@@ -7297,8 +7624,11 @@
       <c r="K60" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>235</v>
       </c>
@@ -7306,22 +7636,22 @@
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>29</v>
@@ -7329,8 +7659,11 @@
       <c r="K61" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>235</v>
       </c>
@@ -7338,22 +7671,22 @@
         <v>24</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>29</v>
@@ -7361,8 +7694,11 @@
       <c r="K62" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>235</v>
       </c>
@@ -7370,19 +7706,19 @@
         <v>25</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>29</v>
@@ -7390,8 +7726,11 @@
       <c r="K63" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>236</v>
       </c>
@@ -7399,22 +7738,22 @@
         <v>9</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>29</v>
@@ -7431,22 +7770,22 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>29</v>
@@ -7463,19 +7802,19 @@
         <v>13</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>29</v>
@@ -7492,25 +7831,25 @@
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -7521,19 +7860,19 @@
         <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>29</v>
@@ -7550,22 +7889,22 @@
         <v>17</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>29</v>
@@ -7574,7 +7913,7 @@
         <v>442</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -7585,19 +7924,19 @@
         <v>18</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>29</v>
@@ -7614,19 +7953,19 @@
         <v>20</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>29</v>
@@ -7643,19 +7982,19 @@
         <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
@@ -7672,19 +8011,19 @@
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>29</v>
@@ -7701,19 +8040,19 @@
         <v>24</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>29</v>
@@ -7730,19 +8069,19 @@
         <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>29</v>
@@ -7759,19 +8098,19 @@
         <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>29</v>
@@ -7780,7 +8119,7 @@
         <v>16</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -7791,19 +8130,19 @@
         <v>27</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>29</v>
@@ -7817,34 +8156,34 @@
         <v>236</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -7852,22 +8191,22 @@
         <v>236</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>29</v>
@@ -7884,25 +8223,25 @@
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>29</v>
@@ -7919,31 +8258,31 @@
         <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -7954,19 +8293,19 @@
         <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>29</v>
@@ -7983,19 +8322,19 @@
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>29</v>
@@ -8012,22 +8351,22 @@
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>29</v>
@@ -8044,28 +8383,28 @@
         <v>17</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -8076,22 +8415,22 @@
         <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>29</v>
@@ -8108,22 +8447,22 @@
         <v>20</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>29</v>
@@ -8140,19 +8479,19 @@
         <v>22</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>29</v>
@@ -8169,25 +8508,25 @@
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -8198,19 +8537,19 @@
         <v>24</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>942</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>29</v>
@@ -8227,22 +8566,22 @@
         <v>25</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>29</v>
@@ -8259,19 +8598,19 @@
         <v>26</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>29</v>
@@ -8288,25 +8627,25 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -8317,19 +8656,19 @@
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>29</v>
@@ -8346,19 +8685,19 @@
         <v>13</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>29</v>
@@ -8375,19 +8714,19 @@
         <v>14</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>29</v>
@@ -8404,19 +8743,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>29</v>
@@ -8433,22 +8772,22 @@
         <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>29</v>
@@ -8465,28 +8804,28 @@
         <v>18</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -8497,19 +8836,19 @@
         <v>20</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>29</v>
@@ -8526,22 +8865,22 @@
         <v>22</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>29</v>
@@ -8558,16 +8897,16 @@
         <v>23</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -8584,19 +8923,19 @@
         <v>24</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>1015</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>29</v>
@@ -8613,31 +8952,31 @@
         <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -8648,19 +8987,19 @@
         <v>26</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>1026</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>29</v>
@@ -8677,22 +9016,22 @@
         <v>27</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1032</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>29</v>
@@ -8706,22 +9045,22 @@
         <v>42</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>29</v>
@@ -8735,22 +9074,22 @@
         <v>42</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>1042</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>29</v>
@@ -8767,22 +9106,22 @@
         <v>9</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>29</v>
@@ -8799,19 +9138,19 @@
         <v>11</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>29</v>
@@ -8828,28 +9167,28 @@
         <v>13</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -8860,19 +9199,19 @@
         <v>14</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>29</v>
@@ -8889,28 +9228,28 @@
         <v>15</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,31 +9260,31 @@
         <v>17</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -8956,22 +9295,22 @@
         <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>10</v>
@@ -8985,19 +9324,19 @@
         <v>20</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>29</v>
@@ -9014,25 +9353,25 @@
         <v>22</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -9043,16 +9382,16 @@
         <v>23</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -9069,22 +9408,22 @@
         <v>24</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>29</v>
@@ -9101,22 +9440,22 @@
         <v>25</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>1105</v>
-      </c>
       <c r="H120" s="2" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>434</v>
@@ -9130,19 +9469,19 @@
         <v>26</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>29</v>
@@ -9159,31 +9498,31 @@
         <v>27</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -9191,22 +9530,22 @@
         <v>40</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>29</v>
@@ -9220,10 +9559,10 @@
         <v>40</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>12</v>
@@ -9241,7 +9580,7 @@
         <v>29</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -9249,28 +9588,28 @@
         <v>40</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>1131</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>29</v>
@@ -9284,31 +9623,28 @@
         <v>40</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1133</v>
+        <v>1056</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1135</v>
+        <v>1058</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1136</v>
+        <v>1059</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I126" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -9316,64 +9652,35 @@
         <v>40</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1060</v>
+        <v>1131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1062</v>
+        <v>1133</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1063</v>
+        <v>1134</v>
       </c>
       <c r="H127" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K312" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K311" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -9443,7 +9750,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>28</v>
@@ -9671,11 +9978,11 @@
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Le S.S.I. (20 questions) --- 4 questions à l'examen</v>
+        <v>Le S.S.I. (19 questions) --- 4 questions à l'examen</v>
       </c>
       <c r="E11" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A11)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A11,4)&amp;"]*")</f>
@@ -9713,7 +10020,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f t="shared" ref="D2:D13" si="1">B13 &amp; " (" &amp; E13 &amp; " questions)"</f>
+        <f t="shared" ref="D13" si="1">B13 &amp; " (" &amp; E13 &amp; " questions)"</f>
         <v xml:space="preserve"> (0 questions)</v>
       </c>
       <c r="E13" s="8">
@@ -10751,7 +11058,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" s="7" t="e">
         <f>FIND(". ",A1)</f>
@@ -10768,7 +11075,7 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B2" s="7" t="e">
         <f>FIND(". ",A2)</f>
@@ -10785,7 +11092,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B3" s="7">
         <f t="shared" ref="B3:B34" si="1">FIND(". ",A3)</f>
@@ -10817,7 +11124,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" si="1"/>
@@ -10855,7 +11162,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" si="1"/>
@@ -10890,7 +11197,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" si="1"/>
@@ -10925,7 +11232,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" si="1"/>
@@ -10960,7 +11267,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" si="1"/>
@@ -10995,7 +11302,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" si="1"/>
@@ -11030,7 +11337,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="1"/>
@@ -11062,7 +11369,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="1"/>
@@ -11094,7 +11401,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" si="1"/>
@@ -11129,7 +11436,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" si="1"/>
@@ -11161,7 +11468,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="1"/>
@@ -11196,7 +11503,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="1"/>
@@ -11228,7 +11535,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" si="1"/>
@@ -11266,7 +11573,7 @@
     </row>
     <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B17" s="7" t="e">
         <f t="shared" si="1"/>
@@ -11283,7 +11590,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" si="1"/>
@@ -11318,7 +11625,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="1"/>
@@ -11350,7 +11657,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B20" s="7">
         <f t="shared" si="1"/>
@@ -11382,7 +11689,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" si="1"/>
@@ -11417,7 +11724,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="1"/>
@@ -11449,7 +11756,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" si="1"/>
@@ -11481,7 +11788,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" si="1"/>
@@ -11519,7 +11826,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" si="1"/>
@@ -11551,7 +11858,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" si="1"/>
@@ -11586,7 +11893,7 @@
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B27" s="7" t="e">
         <f t="shared" si="1"/>
@@ -11603,7 +11910,7 @@
     </row>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B28" s="7" t="e">
         <f t="shared" si="1"/>
@@ -11620,7 +11927,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B29" s="7">
         <f t="shared" si="1"/>
@@ -11652,7 +11959,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B30" s="7">
         <f t="shared" si="1"/>
@@ -11681,7 +11988,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B31" s="7">
         <f t="shared" si="1"/>
@@ -11716,7 +12023,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B32" s="7">
         <f t="shared" si="1"/>
@@ -11751,7 +12058,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B33" s="7">
         <f t="shared" si="1"/>
@@ -11789,7 +12096,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B34" s="7">
         <f t="shared" si="1"/>
@@ -11821,7 +12128,7 @@
     </row>
     <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B35" s="7" t="e">
         <f t="shared" ref="B35:B98" si="2">FIND(". ",A35)</f>
@@ -11838,7 +12145,7 @@
     </row>
     <row r="36" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B36" s="7" t="e">
         <f t="shared" si="2"/>
@@ -11855,7 +12162,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B37" s="7">
         <f t="shared" si="2"/>
@@ -11887,7 +12194,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B38" s="7">
         <f t="shared" si="2"/>
@@ -11919,7 +12226,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B39" s="7">
         <f t="shared" si="2"/>
@@ -11951,7 +12258,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B40" s="7">
         <f t="shared" si="2"/>
@@ -11980,7 +12287,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B41" s="7">
         <f t="shared" si="2"/>
@@ -12012,7 +12319,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B42" s="7">
         <f t="shared" si="2"/>
@@ -12044,7 +12351,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B43" s="7">
         <f t="shared" si="2"/>
@@ -12076,7 +12383,7 @@
     </row>
     <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B44" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12093,7 +12400,7 @@
     </row>
     <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B45" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12110,7 +12417,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B46" s="7">
         <f t="shared" si="2"/>
@@ -12145,7 +12452,7 @@
     </row>
     <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B47" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12162,7 +12469,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" si="2"/>
@@ -12194,7 +12501,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" si="2"/>
@@ -12229,7 +12536,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B50" s="7">
         <f t="shared" si="2"/>
@@ -12261,7 +12568,7 @@
     </row>
     <row r="51" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B51" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12278,7 +12585,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B52" s="7">
         <f t="shared" si="2"/>
@@ -12310,7 +12617,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B53" s="7">
         <f t="shared" si="2"/>
@@ -12345,7 +12652,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B54" s="7">
         <f t="shared" si="2"/>
@@ -12377,7 +12684,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B55" s="7">
         <f t="shared" si="2"/>
@@ -12424,7 +12731,7 @@
     </row>
     <row r="57" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B57" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12441,7 +12748,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B58" s="7">
         <f t="shared" si="2"/>
@@ -12479,7 +12786,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B59" s="7">
         <f t="shared" si="2"/>
@@ -12514,7 +12821,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B60" s="7">
         <f t="shared" si="2"/>
@@ -12549,7 +12856,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B61" s="7">
         <f t="shared" si="2"/>
@@ -12584,7 +12891,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B62" s="7">
         <f t="shared" si="2"/>
@@ -12619,7 +12926,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B63" s="7">
         <f t="shared" si="2"/>
@@ -12651,7 +12958,7 @@
     </row>
     <row r="64" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B64" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12668,7 +12975,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B65" s="7">
         <f t="shared" si="2"/>
@@ -12700,7 +13007,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B66" s="7">
         <f t="shared" si="2"/>
@@ -12732,7 +13039,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B67" s="7">
         <f t="shared" si="2"/>
@@ -12764,7 +13071,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B68" s="7">
         <f t="shared" si="2"/>
@@ -12796,7 +13103,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B69" s="7">
         <f t="shared" si="2"/>
@@ -12831,7 +13138,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B70" s="7">
         <f t="shared" si="2"/>
@@ -12866,7 +13173,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B71" s="7">
         <f t="shared" si="2"/>
@@ -12898,7 +13205,7 @@
     </row>
     <row r="72" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B72" s="7" t="e">
         <f t="shared" si="2"/>
@@ -12915,7 +13222,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B73" s="7">
         <f t="shared" si="2"/>
@@ -12953,7 +13260,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B74" s="7">
         <f t="shared" si="2"/>
@@ -12988,7 +13295,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B75" s="7">
         <f t="shared" si="2"/>
@@ -13023,7 +13330,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B76" s="7">
         <f t="shared" si="2"/>
@@ -13058,7 +13365,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B77" s="7">
         <f t="shared" si="2"/>
@@ -13090,7 +13397,7 @@
     </row>
     <row r="78" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B78" s="7" t="e">
         <f t="shared" si="2"/>
@@ -13107,7 +13414,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B79" s="7">
         <f t="shared" si="2"/>
@@ -13142,7 +13449,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B80" s="7">
         <f t="shared" si="2"/>
@@ -13177,7 +13484,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B81" s="7">
         <f t="shared" si="2"/>
@@ -13209,7 +13516,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B82" s="7">
         <f t="shared" si="2"/>
@@ -13241,7 +13548,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B83" s="7">
         <f t="shared" si="2"/>
@@ -13273,7 +13580,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B84" s="7">
         <f t="shared" si="2"/>
@@ -13308,7 +13615,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B85" s="7">
         <f t="shared" si="2"/>
@@ -13340,7 +13647,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B86" s="7">
         <f t="shared" si="2"/>
@@ -13372,7 +13679,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B87" s="7">
         <f t="shared" si="2"/>
@@ -13404,7 +13711,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B88" s="7">
         <f t="shared" si="2"/>
@@ -13436,7 +13743,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B89" s="7">
         <f t="shared" si="2"/>
@@ -13468,7 +13775,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B90" s="7">
         <f t="shared" si="2"/>
@@ -13500,7 +13807,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B91" s="7">
         <f t="shared" si="2"/>
@@ -13532,7 +13839,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B92" s="7">
         <f t="shared" si="2"/>
@@ -13564,7 +13871,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B93" s="7">
         <f t="shared" si="2"/>
@@ -13599,7 +13906,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B94" s="7">
         <f t="shared" si="2"/>
@@ -13631,7 +13938,7 @@
     </row>
     <row r="95" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B95" s="7" t="e">
         <f t="shared" si="2"/>
@@ -13648,7 +13955,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B96" s="7">
         <f t="shared" si="2"/>
@@ -13686,7 +13993,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B97" s="7">
         <f t="shared" si="2"/>
@@ -13721,7 +14028,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B98" s="7">
         <f t="shared" si="2"/>
@@ -13753,7 +14060,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B99" s="7">
         <f t="shared" ref="B99:B162" si="4">FIND(". ",A99)</f>
@@ -13785,7 +14092,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B100" s="7">
         <f t="shared" si="4"/>
@@ -13820,7 +14127,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B101" s="7">
         <f t="shared" si="4"/>
@@ -13855,7 +14162,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B102" s="7">
         <f t="shared" si="4"/>
@@ -13890,7 +14197,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B103" s="7">
         <f t="shared" si="4"/>
@@ -13925,7 +14232,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B104" s="7">
         <f t="shared" si="4"/>
@@ -13957,7 +14264,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B105" s="7">
         <f t="shared" si="4"/>
@@ -13989,7 +14296,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B106" s="7">
         <f t="shared" si="4"/>
@@ -14021,7 +14328,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B107" s="7">
         <f t="shared" si="4"/>
@@ -14056,7 +14363,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B108" s="7">
         <f t="shared" si="4"/>
@@ -14088,7 +14395,7 @@
     </row>
     <row r="109" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B109" s="7" t="e">
         <f t="shared" si="4"/>
@@ -14105,7 +14412,7 @@
     </row>
     <row r="110" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B110" s="7" t="e">
         <f t="shared" si="4"/>
@@ -14122,7 +14429,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B111" s="7">
         <f t="shared" si="4"/>
@@ -14154,7 +14461,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B112" s="7">
         <f t="shared" si="4"/>
@@ -14186,7 +14493,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B113" s="7">
         <f t="shared" si="4"/>
@@ -14218,7 +14525,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B114" s="7">
         <f t="shared" si="4"/>
@@ -14250,7 +14557,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B115" s="7">
         <f t="shared" si="4"/>
@@ -14282,7 +14589,7 @@
     </row>
     <row r="116" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B116" s="7" t="e">
         <f t="shared" si="4"/>
@@ -14299,7 +14606,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B117" s="7">
         <f t="shared" si="4"/>
@@ -14334,7 +14641,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B118" s="7">
         <f t="shared" si="4"/>
@@ -14369,7 +14676,7 @@
     </row>
     <row r="119" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B119" s="7" t="e">
         <f t="shared" si="4"/>
@@ -14386,7 +14693,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B120" s="7">
         <f t="shared" si="4"/>
@@ -14418,7 +14725,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B121" s="7">
         <f t="shared" si="4"/>
@@ -14453,7 +14760,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B122" s="7">
         <f t="shared" si="4"/>
@@ -14482,7 +14789,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B123" s="7">
         <f t="shared" si="4"/>
@@ -14514,7 +14821,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B124" s="7">
         <f t="shared" si="4"/>
@@ -14552,7 +14859,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B125" s="7">
         <f t="shared" si="4"/>
@@ -14584,7 +14891,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B126" s="7">
         <f t="shared" si="4"/>
@@ -14619,7 +14926,7 @@
     </row>
     <row r="127" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B127" s="7" t="e">
         <f t="shared" si="4"/>
@@ -14636,7 +14943,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B128" s="7">
         <f t="shared" si="4"/>
@@ -14668,7 +14975,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B129" s="7">
         <f t="shared" si="4"/>
@@ -14700,7 +15007,7 @@
     </row>
     <row r="130" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B130" s="7">
         <f t="shared" si="4"/>
@@ -14717,7 +15024,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B131" s="7">
         <f t="shared" si="4"/>
@@ -14752,7 +15059,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B132" s="7">
         <f t="shared" si="4"/>
@@ -14784,7 +15091,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B133" s="7">
         <f t="shared" si="4"/>
@@ -14819,7 +15126,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B134" s="7">
         <f t="shared" si="4"/>
@@ -14851,7 +15158,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B135" s="7">
         <f t="shared" si="4"/>
@@ -14886,7 +15193,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B136" s="7">
         <f t="shared" si="4"/>
@@ -14924,7 +15231,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B137" s="7">
         <f t="shared" si="4"/>
@@ -14956,7 +15263,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B138" s="7">
         <f t="shared" si="4"/>
@@ -14988,7 +15295,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B139" s="7">
         <f t="shared" si="4"/>
@@ -15020,7 +15327,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B140" s="7">
         <f t="shared" si="4"/>
@@ -15049,7 +15356,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B141" s="7">
         <f t="shared" si="4"/>
@@ -15084,7 +15391,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B142" s="7">
         <f t="shared" si="4"/>
@@ -15116,7 +15423,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B143" s="7">
         <f t="shared" si="4"/>
@@ -15148,7 +15455,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B144" s="7">
         <f t="shared" si="4"/>
@@ -15186,7 +15493,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B145" s="7">
         <f t="shared" si="4"/>
@@ -15218,7 +15525,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B146" s="7">
         <f t="shared" si="4"/>
@@ -15250,7 +15557,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B147" s="7">
         <f t="shared" si="4"/>
@@ -15288,7 +15595,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B148" s="7">
         <f t="shared" si="4"/>
@@ -15323,7 +15630,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B149" s="7">
         <f t="shared" si="4"/>
@@ -15355,7 +15662,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B150" s="7">
         <f t="shared" si="4"/>
@@ -15390,7 +15697,7 @@
     </row>
     <row r="151" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B151" s="7" t="e">
         <f t="shared" si="4"/>
@@ -15407,7 +15714,7 @@
     </row>
     <row r="152" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B152" s="7" t="e">
         <f t="shared" si="4"/>
@@ -15424,7 +15731,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B153" s="7">
         <f t="shared" si="4"/>
@@ -15456,7 +15763,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B154" s="7">
         <f t="shared" si="4"/>
@@ -15491,7 +15798,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B155" s="7">
         <f t="shared" si="4"/>
@@ -15523,7 +15830,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B156" s="7">
         <f t="shared" si="4"/>
@@ -15555,7 +15862,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B157" s="7">
         <f t="shared" si="4"/>
@@ -15590,7 +15897,7 @@
     </row>
     <row r="158" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B158" s="7" t="e">
         <f t="shared" si="4"/>
@@ -15607,7 +15914,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B159" s="7">
         <f t="shared" si="4"/>
@@ -15636,7 +15943,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B160" s="7">
         <f t="shared" si="4"/>
@@ -15665,7 +15972,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B161" s="7">
         <f t="shared" si="4"/>
@@ -15700,7 +16007,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B162" s="7">
         <f t="shared" si="4"/>
@@ -15732,7 +16039,7 @@
     </row>
     <row r="163" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B163" s="7" t="e">
         <f t="shared" ref="B163:B224" si="6">FIND(". ",A163)</f>
@@ -15749,7 +16056,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B164" s="7">
         <f t="shared" si="6"/>
@@ -15781,7 +16088,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B165" s="7">
         <f t="shared" si="6"/>
@@ -15816,7 +16123,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B166" s="7">
         <f t="shared" si="6"/>
@@ -15851,7 +16158,7 @@
     </row>
     <row r="167" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B167" s="7" t="e">
         <f t="shared" si="6"/>
@@ -15868,7 +16175,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B168" s="7">
         <f t="shared" si="6"/>
@@ -15900,7 +16207,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B169" s="7">
         <f t="shared" si="6"/>
@@ -15932,7 +16239,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B170" s="7">
         <f t="shared" si="6"/>
@@ -15967,7 +16274,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B171" s="7">
         <f t="shared" si="6"/>
@@ -15999,7 +16306,7 @@
     </row>
     <row r="172" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B172" s="7" t="e">
         <f t="shared" si="6"/>
@@ -16016,7 +16323,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B173" s="7">
         <f t="shared" si="6"/>
@@ -16051,7 +16358,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B174" s="7">
         <f t="shared" si="6"/>
@@ -16083,7 +16390,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B175" s="7">
         <f t="shared" si="6"/>
@@ -16118,7 +16425,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B176" s="7">
         <f t="shared" si="6"/>
@@ -16150,7 +16457,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B177" s="7">
         <f t="shared" si="6"/>
@@ -16185,7 +16492,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B178" s="7">
         <f t="shared" si="6"/>
@@ -16217,7 +16524,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B179" s="7">
         <f t="shared" si="6"/>
@@ -16252,7 +16559,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B180" s="7">
         <f t="shared" si="6"/>
@@ -16284,7 +16591,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B181" s="7">
         <f t="shared" si="6"/>
@@ -16316,7 +16623,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B182" s="7">
         <f t="shared" si="6"/>
@@ -16354,7 +16661,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B183" s="7">
         <f t="shared" si="6"/>
@@ -16389,7 +16696,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B184" s="7">
         <f t="shared" si="6"/>
@@ -16421,7 +16728,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B185" s="7">
         <f t="shared" si="6"/>
@@ -16447,7 +16754,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B186" s="7">
         <f t="shared" si="6"/>
@@ -16479,7 +16786,7 @@
     </row>
     <row r="187" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B187" s="7" t="e">
         <f t="shared" si="6"/>
@@ -16496,7 +16803,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B188" s="7">
         <f t="shared" si="6"/>
@@ -16531,7 +16838,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B189" s="7">
         <f t="shared" si="6"/>
@@ -16563,7 +16870,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B190" s="7">
         <f t="shared" si="6"/>
@@ -16595,7 +16902,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B191" s="7">
         <f t="shared" si="6"/>
@@ -16627,7 +16934,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B192" s="7">
         <f t="shared" si="6"/>
@@ -16662,7 +16969,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B193" s="7">
         <f t="shared" si="6"/>
@@ -16697,7 +17004,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B194" s="7">
         <f t="shared" si="6"/>
@@ -16732,7 +17039,7 @@
     </row>
     <row r="195" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B195" s="7" t="e">
         <f t="shared" si="6"/>
@@ -16749,7 +17056,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B196" s="7">
         <f t="shared" si="6"/>
@@ -16781,7 +17088,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B197" s="7">
         <f t="shared" si="6"/>
@@ -16813,7 +17120,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B198" s="7">
         <f t="shared" si="6"/>
@@ -16848,7 +17155,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B199" s="7">
         <f t="shared" si="6"/>
@@ -16880,7 +17187,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B200" s="7">
         <f t="shared" si="6"/>
@@ -16915,7 +17222,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B201" s="7">
         <f t="shared" si="6"/>
@@ -16950,7 +17257,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B202" s="7">
         <f t="shared" si="6"/>
@@ -16982,7 +17289,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B203" s="7">
         <f t="shared" si="6"/>
@@ -17020,7 +17327,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B204" s="7">
         <f t="shared" si="6"/>
@@ -17052,7 +17359,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B205" s="7">
         <f t="shared" si="6"/>
@@ -17081,7 +17388,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B206" s="7">
         <f t="shared" si="6"/>
@@ -17113,7 +17420,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B207" s="7">
         <f t="shared" si="6"/>
@@ -17145,7 +17452,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B208" s="7">
         <f t="shared" si="6"/>
@@ -17177,7 +17484,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B209" s="7">
         <f t="shared" si="6"/>
@@ -17209,7 +17516,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B210" s="7">
         <f t="shared" si="6"/>
@@ -17241,7 +17548,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B211" s="7">
         <f t="shared" si="6"/>
@@ -17276,7 +17583,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B212" s="7">
         <f t="shared" si="6"/>
@@ -17311,7 +17618,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B213" s="7">
         <f t="shared" si="6"/>
@@ -17346,7 +17653,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B214" s="7">
         <f t="shared" si="6"/>
@@ -17381,7 +17688,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B215" s="7">
         <f t="shared" si="6"/>
@@ -17413,7 +17720,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B216" s="7">
         <f t="shared" si="6"/>
@@ -17445,7 +17752,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B217" s="7">
         <f t="shared" si="6"/>
@@ -17477,7 +17784,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B218" s="7">
         <f t="shared" si="6"/>
@@ -17512,7 +17819,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B219" s="7">
         <f t="shared" si="6"/>
@@ -17547,7 +17854,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B220" s="7">
         <f t="shared" si="6"/>
@@ -17579,7 +17886,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B221" s="7">
         <f t="shared" si="6"/>
@@ -17611,7 +17918,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B222" s="7">
         <f t="shared" si="6"/>
@@ -17643,7 +17950,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B223" s="7">
         <f t="shared" si="6"/>
@@ -17675,7 +17982,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B224" s="7">
         <f t="shared" si="6"/>
@@ -17710,7 +18017,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B225" s="7">
         <f t="shared" ref="B225" si="8">FIND(". ",A225)</f>

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D90EC8-39F8-4CFB-8FE9-E28C219A493E}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49F1AD1-612D-421C-9A4B-4EEE3A4F92CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <definedName name="_e8p5frs5ytai" localSheetId="3">Feuil1!$A$3</definedName>
     <definedName name="_eltq1ml39i8g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_f4und4vdlss2" localSheetId="3">Feuil1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$308</definedName>
     <definedName name="_g0y5qe76r34g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="3">Feuil1!$A$4</definedName>
     <definedName name="_g8ek9utgccwp" localSheetId="3">Feuil1!#REF!</definedName>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1286">
   <si>
     <t>UV</t>
   </si>
@@ -4220,12 +4220,261 @@
 - orange fixe à un défaut batterie, 
 - orange clignotant à un défaut des lampes ou un défaut électronique (selon les marques la partie orange peut être inversée).</t>
   </si>
+  <si>
+    <t>Sauf dispositions particulières, quand un service de sécurité est imposé avec des agents de sécurité incendie, il est composé au minimum de :</t>
+  </si>
+  <si>
+    <t>3 agents dont 1 chef d’équipe</t>
+  </si>
+  <si>
+    <t>3 agents et 1 chef d’équipe</t>
+  </si>
+  <si>
+    <t>2 agents dont 1 chef d’équipe</t>
+  </si>
+  <si>
+    <t>1 agent et 1 chef d’équipe</t>
+  </si>
+  <si>
+    <t>Indiquer dans quel(s) cas, un service de sécurité incendie est constitué obligatoirement avec des agents SSIAP :</t>
+  </si>
+  <si>
+    <t>Dans tout type d’ERP</t>
+  </si>
+  <si>
+    <t>Dans tout IGH</t>
+  </si>
+  <si>
+    <t>Seulement s’il y a des locaux à sommeil</t>
+  </si>
+  <si>
+    <t>Seulement la nuit</t>
+  </si>
+  <si>
+    <t>Uniquement pendant la présence du public</t>
+  </si>
+  <si>
+    <t>En qualité d’agent de sécurité incendie, pouvez-vous utiliser une nacelle de nettoyage ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Oui, sur ordre du chef de service de sécurité incendie</t>
+  </si>
+  <si>
+    <t>Oui, pour aider les ouvriers</t>
+  </si>
+  <si>
+    <t>Quelles sont les missions spécifiques du service de sécurité incendie ?</t>
+  </si>
+  <si>
+    <t>L’assistance à personne au sein des établissements où ils exercent</t>
+  </si>
+  <si>
+    <t>L’exploitation du contrôle d’accès</t>
+  </si>
+  <si>
+    <t>Le filtrage des visiteurs</t>
+  </si>
+  <si>
+    <t>La prévention des incendies</t>
+  </si>
+  <si>
+    <t>Indiquer les informations que l’on trouve dans l’Arrêté relatif au SSIAP :</t>
+  </si>
+  <si>
+    <t>Les missions des SSIAP</t>
+  </si>
+  <si>
+    <t>La rémunération des SSIAP</t>
+  </si>
+  <si>
+    <t>Le niveau de qualification des SSIAP</t>
+  </si>
+  <si>
+    <t>La formation des agents de sûreté</t>
+  </si>
+  <si>
+    <t>L’emploi des SSIAP</t>
+  </si>
+  <si>
+    <t>Les consignes générales sont destinées :</t>
+  </si>
+  <si>
+    <t>Au public et au personnel</t>
+  </si>
+  <si>
+    <t>Uniquement aux agents SSIAP</t>
+  </si>
+  <si>
+    <t>À une catégorie de personnes déterminée</t>
+  </si>
+  <si>
+    <t>Les consignes particulières sont destinées :</t>
+  </si>
+  <si>
+    <t>La main courante :</t>
+  </si>
+  <si>
+    <t>Est tenue par le chef du service de sécurité incendie</t>
+  </si>
+  <si>
+    <t>Est un document dans lequel doivent apparaître tous les événements liés à la sécurité</t>
+  </si>
+  <si>
+    <t>Doit être obligatoirement sur papier</t>
+  </si>
+  <si>
+    <t>Est un registre hebdomadaire des anomalies</t>
+  </si>
+  <si>
+    <t>Doit être remplie par un agent chargé de la sécurité et signée à chaque fin de service</t>
+  </si>
+  <si>
+    <t>Sur la main courante je note :</t>
+  </si>
+  <si>
+    <t>Les événements liés à la sécurité</t>
+  </si>
+  <si>
+    <t>La prise et la fin de service</t>
+  </si>
+  <si>
+    <t>Les interventions du personnel de sécurité</t>
+  </si>
+  <si>
+    <t>Les messages téléphoniques pour le personnel du service</t>
+  </si>
+  <si>
+    <t>Qui assure la permanence au poste de sécurité ?</t>
+  </si>
+  <si>
+    <t>L’agent de sécurité incendie SSIAP 1</t>
+  </si>
+  <si>
+    <t>Le chef d’équipe sécurité incendie SSIAP 2</t>
+  </si>
+  <si>
+    <t>Le directeur du site</t>
+  </si>
+  <si>
+    <t>Tout le personnel de l’établissement</t>
+  </si>
+  <si>
+    <t>Indiquer ce que l’on doit trouver au PCS :</t>
+  </si>
+  <si>
+    <t>Un coin repas</t>
+  </si>
+  <si>
+    <t>La vidéosurveillance</t>
+  </si>
+  <si>
+    <t>Les émetteurs récepteurs portatifs</t>
+  </si>
+  <si>
+    <t>Le SSI</t>
+  </si>
+  <si>
+    <t>Les clefs ou badges pour accéder à tous les locaux</t>
+  </si>
+  <si>
+    <t>Quels documents trouve-t-on obligatoirement au P.C Sécurité ?</t>
+  </si>
+  <si>
+    <t>Le registre des entrées et sorties du personnel</t>
+  </si>
+  <si>
+    <t>Les différents plans de l’établissement</t>
+  </si>
+  <si>
+    <t>Les consignes générales d’incendie</t>
+  </si>
+  <si>
+    <t>Les consignes particulières de sécurité</t>
+  </si>
+  <si>
+    <t>Les numéros d’appel d’urgence</t>
+  </si>
+  <si>
+    <t>Quels sont les buts de la ronde de sécurité ?</t>
+  </si>
+  <si>
+    <t>Surveiller les points dangereux</t>
+  </si>
+  <si>
+    <t>Détecter les faits anormaux ou les dangers</t>
+  </si>
+  <si>
+    <t>Prévenir les occupants de la fermeture de l’établissement</t>
+  </si>
+  <si>
+    <t>Vérifier l’application des consignes de sécurité</t>
+  </si>
+  <si>
+    <t>Lors d’une ronde d’ouverture quelle est l’action primordiale à effectuer ?</t>
+  </si>
+  <si>
+    <t>Mettre en fonction l’éclairage de remplacement</t>
+  </si>
+  <si>
+    <t>Mettre en fonction l’éclairage de sécurité</t>
+  </si>
+  <si>
+    <t>S’assurer de la vacuité des dégagements</t>
+  </si>
+  <si>
+    <t>Contrôler la pression des R.I.A</t>
+  </si>
+  <si>
+    <t>Indiquer le ou les permis que l’on doit posséder pour effectuer des travaux de soudure :</t>
+  </si>
+  <si>
+    <t>Permis de soudure</t>
+  </si>
+  <si>
+    <t>Permis de travail</t>
+  </si>
+  <si>
+    <t>Permis de fouille</t>
+  </si>
+  <si>
+    <t>Permis de feu</t>
+  </si>
+  <si>
+    <t>Permis d’incendie</t>
+  </si>
+  <si>
+    <t>Dans quel cas doit-on rédiger un permis de feu dans un établissement recevant du public ?</t>
+  </si>
+  <si>
+    <t>Lors de l’utilisation d’un transpalette à gaz dans un local</t>
+  </si>
+  <si>
+    <t>À l’occasion de travaux par points chauds</t>
+  </si>
+  <si>
+    <t>À la mise en place d’une zone fumeur</t>
+  </si>
+  <si>
+    <t>Lors de la mise en fonction d’une chaudière à gaz</t>
+  </si>
+  <si>
+    <t>C,D,E</t>
+  </si>
+  <si>
+    <t>B,C,D,E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4337,6 +4586,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4398,7 +4653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4448,6 +4703,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5586,13 +5844,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9679,8 +9937,484 @@
         <v>452</v>
       </c>
     </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K311" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K308" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -9730,7 +10464,9 @@
   </sheetPr>
   <dimension ref="A1:F993"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10001,11 +10737,11 @@
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Rôles et missions des agents (0 questions) --- 5 questions à l'examen</v>
+        <v>Rôles et missions des agents (16 questions) --- 5 questions à l'examen</v>
       </c>
       <c r="E12" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A12)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A12,4)&amp;"]*")</f>
@@ -11045,8 +11781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A188" activeCellId="1" sqref="A173:A186 A188:A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15730,7 +16466,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="18" t="s">
         <v>605</v>
       </c>
       <c r="B153" s="7">
@@ -15762,7 +16498,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="18" t="s">
         <v>606</v>
       </c>
       <c r="B154" s="7">
@@ -15797,7 +16533,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="18" t="s">
         <v>607</v>
       </c>
       <c r="B155" s="7">
@@ -15829,7 +16565,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="18" t="s">
         <v>608</v>
       </c>
       <c r="B156" s="7">
@@ -15861,7 +16597,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="18" t="s">
         <v>609</v>
       </c>
       <c r="B157" s="7">
@@ -15913,7 +16649,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="18" t="s">
         <v>611</v>
       </c>
       <c r="B159" s="7">
@@ -15942,7 +16678,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="18" t="s">
         <v>612</v>
       </c>
       <c r="B160" s="7">
@@ -15971,7 +16707,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="18" t="s">
         <v>613</v>
       </c>
       <c r="B161" s="7">
@@ -16006,7 +16742,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="18" t="s">
         <v>614</v>
       </c>
       <c r="B162" s="7">
@@ -16055,7 +16791,7 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="18" t="s">
         <v>616</v>
       </c>
       <c r="B164" s="7">
@@ -16087,7 +16823,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="18" t="s">
         <v>617</v>
       </c>
       <c r="B165" s="7">
@@ -16122,7 +16858,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="18" t="s">
         <v>618</v>
       </c>
       <c r="B166" s="7">
@@ -16174,7 +16910,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="18" t="s">
         <v>620</v>
       </c>
       <c r="B168" s="7">
@@ -16206,7 +16942,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="18" t="s">
         <v>621</v>
       </c>
       <c r="B169" s="7">
@@ -16238,7 +16974,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="18" t="s">
         <v>622</v>
       </c>
       <c r="B170" s="7">
@@ -16273,7 +17009,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="18" t="s">
         <v>623</v>
       </c>
       <c r="B171" s="7">

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49F1AD1-612D-421C-9A4B-4EEE3A4F92CC}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B391AF-E08D-41A1-9AA1-8ABF8309C0A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <definedName name="_e8p5frs5ytai" localSheetId="3">Feuil1!$A$3</definedName>
     <definedName name="_eltq1ml39i8g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_f4und4vdlss2" localSheetId="3">Feuil1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste_Questions!$A$1:$K$306</definedName>
     <definedName name="_g0y5qe76r34g" localSheetId="3">Feuil1!#REF!</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="3">Feuil1!$A$4</definedName>
     <definedName name="_g8ek9utgccwp" localSheetId="3">Feuil1!#REF!</definedName>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1510">
   <si>
     <t>UV</t>
   </si>
@@ -4468,6 +4468,678 @@
   </si>
   <si>
     <t>B,C,D,E</t>
+  </si>
+  <si>
+    <t>Quels sont les modes d’action des agents extincteurs ?</t>
+  </si>
+  <si>
+    <t>L’étouffement</t>
+  </si>
+  <si>
+    <t>Le refroidissement</t>
+  </si>
+  <si>
+    <t>La conduction</t>
+  </si>
+  <si>
+    <t>L’inhibition</t>
+  </si>
+  <si>
+    <t>Le réchauffement</t>
+  </si>
+  <si>
+    <t>Quelles sont les opérations de surveillance à réaliser sur une installation de RIA ?</t>
+  </si>
+  <si>
+    <t>Vérifier l’absence d’eau dans le tuyau du RIA</t>
+  </si>
+  <si>
+    <t>Contrôler le bon fonctionnement du robinet d’arrêt manuel</t>
+  </si>
+  <si>
+    <t>S’assurer que le coffret dans lequel se trouve le RIA est fermé à clé</t>
+  </si>
+  <si>
+    <t>S’assurer que le RIA est en eau</t>
+  </si>
+  <si>
+    <t>Qui peut utiliser les RIA dans un ERP ou un IGH ?</t>
+  </si>
+  <si>
+    <t>Parmi ces propositions, quel type d’extincteur doit-on utiliser en priorité sur un feu de tableau électrique ?</t>
+  </si>
+  <si>
+    <t>Extincteur à eau pulvérisée</t>
+  </si>
+  <si>
+    <t>Extincteur à CO2</t>
+  </si>
+  <si>
+    <t>Extincteur à poudre</t>
+  </si>
+  <si>
+    <t>Extincteur au halon</t>
+  </si>
+  <si>
+    <t>Pour utiliser un extincteur à pression permanente vous devez :</t>
+  </si>
+  <si>
+    <t>Le percuter</t>
+  </si>
+  <si>
+    <t>Le coucher</t>
+  </si>
+  <si>
+    <t>Le dégoupiller</t>
+  </si>
+  <si>
+    <t>Appuyer sur la poignée de diffusion</t>
+  </si>
+  <si>
+    <t>Vérifier que le diffuseur est bien en place</t>
+  </si>
+  <si>
+    <t>Le mode d’extinction d’un feu par étouffement consiste à :</t>
+  </si>
+  <si>
+    <t>Faire baisser la température</t>
+  </si>
+  <si>
+    <t>Se rapprocher très près des flammes</t>
+  </si>
+  <si>
+    <t>Disperser le combustible</t>
+  </si>
+  <si>
+    <t>Empêcher l’apport d’air</t>
+  </si>
+  <si>
+    <t>Quels sont les agents d’extinction contenus dans les extincteurs portatifs ?</t>
+  </si>
+  <si>
+    <t>L’eau</t>
+  </si>
+  <si>
+    <t>Le CO2</t>
+  </si>
+  <si>
+    <t>Le halon</t>
+  </si>
+  <si>
+    <t>L’azote</t>
+  </si>
+  <si>
+    <t>La poudre</t>
+  </si>
+  <si>
+    <t>Parmi ces propositions, quel type d’extincteur doit-on privilégier sur un feu de matelas ?</t>
+  </si>
+  <si>
+    <t>Un extincteur CO2 est un extincteur à pression :</t>
+  </si>
+  <si>
+    <t>Permanente</t>
+  </si>
+  <si>
+    <t>Auxiliaire</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Atmosphérique</t>
+  </si>
+  <si>
+    <t>Pour éteindre un feu dans une armoire électrique, l’agent extincteur le plus efficace est :</t>
+  </si>
+  <si>
+    <t>L’eau avec additif</t>
+  </si>
+  <si>
+    <t>Le carbone</t>
+  </si>
+  <si>
+    <t>Le sable</t>
+  </si>
+  <si>
+    <t>Pour utiliser un extincteur à pression auxiliaire vous devez :</t>
+  </si>
+  <si>
+    <t>Combien existe-t-il de principes de fonctionnement des extincteurs portatifs ?</t>
+  </si>
+  <si>
+    <t>1 principe</t>
+  </si>
+  <si>
+    <t>2 principes</t>
+  </si>
+  <si>
+    <t>3 principes</t>
+  </si>
+  <si>
+    <t>4 principes</t>
+  </si>
+  <si>
+    <t>Peut-on mettre en œuvre un extincteur à eau pulvérisée sur une armoire électrique de 380V ?</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Suite à une évacuation, vous constatez l’absence d’une personne. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je ne fais rien</t>
+  </si>
+  <si>
+    <t>Je préviens le commandant des opérations de secours</t>
+  </si>
+  <si>
+    <t>Je pars à sa recherche</t>
+  </si>
+  <si>
+    <t>J’attends son arrivée</t>
+  </si>
+  <si>
+    <t>Je préviens mon chef d’équipe</t>
+  </si>
+  <si>
+    <t>En cours de ronde vous sentez une odeur suspecte. Vous :</t>
+  </si>
+  <si>
+    <t>Effectuez la levée de doute</t>
+  </si>
+  <si>
+    <t>Poursuivez votre ronde</t>
+  </si>
+  <si>
+    <t>Prévenez votre PC Sécurité</t>
+  </si>
+  <si>
+    <t>Prévenez les pompiers</t>
+  </si>
+  <si>
+    <t>Lors d’une ronde, vous apercevez de la fumée s’échappant d’un local technique. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Vous regagnez le poste de sécurité pour prévenir votre chef d’équipe</t>
+  </si>
+  <si>
+    <t>Vous vous approchez et ouvrez la porte pour connaître l’étendue du sinistre</t>
+  </si>
+  <si>
+    <t>Vous saisissez un moyen d’extinction et vous ouvrez prudemment le local</t>
+  </si>
+  <si>
+    <t>Vous contactez le poste de sécurité pour prévenir de la situation découverte</t>
+  </si>
+  <si>
+    <t>Lors d’une levée de doute que faites-vous en premier si vous constatez qu’il y a effectivement le feu dans le local ?</t>
+  </si>
+  <si>
+    <t>J’entre en me protégeant</t>
+  </si>
+  <si>
+    <t>Je confirme l’alarme</t>
+  </si>
+  <si>
+    <t>J’arrose la porte</t>
+  </si>
+  <si>
+    <t>Je commence l’extinction</t>
+  </si>
+  <si>
+    <t>En cours de ronde vous découvrez un début d’incendie dans le local T.G.B.T. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je vais au PC sécurité attendre les secours</t>
+  </si>
+  <si>
+    <t>J’informe le PC sécurité par radio</t>
+  </si>
+  <si>
+    <t>Je vais accueillir les secours publics à l’accès pompier</t>
+  </si>
+  <si>
+    <t>Je tente l’extinction en prenant les précautions d’usage</t>
+  </si>
+  <si>
+    <t>Je rassemble le personnel pour leur demander des renforts</t>
+  </si>
+  <si>
+    <t>Lors d’une ronde, vous découvrez un début d’incendie dans un local. Que faites-vous en premier ?</t>
+  </si>
+  <si>
+    <t>J’ouvre la porte sans prendre de précautions particulières</t>
+  </si>
+  <si>
+    <t>Je préviens le P.C.S</t>
+  </si>
+  <si>
+    <t>Je préviens les pompiers</t>
+  </si>
+  <si>
+    <t>Je préviens mon chef de service de sécurité</t>
+  </si>
+  <si>
+    <t>Je fais évacuer l’établissement par précaution</t>
+  </si>
+  <si>
+    <t>Lors d’une ronde, on soupçonne un début d’incendie dans un local. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je ne mène aucune action car c’est dangereux</t>
+  </si>
+  <si>
+    <t>Je préviens seulement les pompiers</t>
+  </si>
+  <si>
+    <t>Je préviens seulement le chef du service de sécurité</t>
+  </si>
+  <si>
+    <t>Dans les IGH comment est assurée la communication entre deux compartiments sur un même niveau ?</t>
+  </si>
+  <si>
+    <t>Par un dispositif d'ouverture asservi à la D.A.I</t>
+  </si>
+  <si>
+    <t>Par un dispositif d'ouverture automatique</t>
+  </si>
+  <si>
+    <t>Par un dispositif d'intercommunication mis en surpression</t>
+  </si>
+  <si>
+    <t>Par un dispositif de contrôle d'accès</t>
+  </si>
+  <si>
+    <t>La stabilité au feu d'un I.G.H est, au minimum de:</t>
+  </si>
+  <si>
+    <t>4 heures</t>
+  </si>
+  <si>
+    <t>Quel est le règlement de sécurité incendie applicable aux I.G.H ?</t>
+  </si>
+  <si>
+    <t>L'arrêté du 08 mai 1968 modifié</t>
+  </si>
+  <si>
+    <t>L'arrêté du 19 octobre 1955 modifié</t>
+  </si>
+  <si>
+    <t>L'arrêté du 25 juin 1980 modifié</t>
+  </si>
+  <si>
+    <t>L'arrêté du 06 octobre 1962 modifié</t>
+  </si>
+  <si>
+    <t>L'arrêté du 30 décembre 2011</t>
+  </si>
+  <si>
+    <t>Quels sont les différents types d'éclairage susceptibles d'exister dans un E.R.P</t>
+  </si>
+  <si>
+    <t>Eclairage normal</t>
+  </si>
+  <si>
+    <t>Eclairage de confort</t>
+  </si>
+  <si>
+    <t>Eclairage de remplacement</t>
+  </si>
+  <si>
+    <t>Eclairage de sécurité</t>
+  </si>
+  <si>
+    <t>Font partie des moyens de secours (au sens des articles MS):</t>
+  </si>
+  <si>
+    <t>Les poteaux d'incendie.</t>
+  </si>
+  <si>
+    <t>L'éclairage de sécurité</t>
+  </si>
+  <si>
+    <t>Le chef d'établissement</t>
+  </si>
+  <si>
+    <t>Parmi ces propositions, indiquer les missions du service de sécurité incendie.</t>
+  </si>
+  <si>
+    <t>Assurer la vacuité des cheminements d'évacuation jusqu'à la voie publique</t>
+  </si>
+  <si>
+    <t>Surveiller l'entretien des espaces verts</t>
+  </si>
+  <si>
+    <t>Faire appliquer les consignes en cas d'intrusion</t>
+  </si>
+  <si>
+    <t>Tenir à jour le registre de sécurité</t>
+  </si>
+  <si>
+    <t>Quels sont les modes de propagation d'un incendie ?</t>
+  </si>
+  <si>
+    <t>Le rayonnement</t>
+  </si>
+  <si>
+    <t>Les projections</t>
+  </si>
+  <si>
+    <t>La conviction</t>
+  </si>
+  <si>
+    <t>La fragmentation</t>
+  </si>
+  <si>
+    <t>La convection</t>
+  </si>
+  <si>
+    <t>Pour qu'un feu soit inhibé, il faut ?</t>
+  </si>
+  <si>
+    <t>Refroidir le combustible</t>
+  </si>
+  <si>
+    <t>Arroser les flammes</t>
+  </si>
+  <si>
+    <t>Utiliser un RIA</t>
+  </si>
+  <si>
+    <t>Outre la toxicité, les fumées sont susceptibles de provoquer :</t>
+  </si>
+  <si>
+    <t>L'étouffement du feu</t>
+  </si>
+  <si>
+    <t>Un effet de panique pour les personnes</t>
+  </si>
+  <si>
+    <t>Une diminution de la visibilité pour les personnes en cas d'évacuation</t>
+  </si>
+  <si>
+    <t>Un exutoire de fumée est:</t>
+  </si>
+  <si>
+    <t>Un volume fermé servant au passage d'un fluide déterminé</t>
+  </si>
+  <si>
+    <t>Un volume situé en sous face d'un plancher haut</t>
+  </si>
+  <si>
+    <t>Un dispositif d'évacuation des fumées situé en toiture</t>
+  </si>
+  <si>
+    <t>Un dispositif d'évacuation des fumées situé en façade</t>
+  </si>
+  <si>
+    <t>Un espace libre est un espace permettant:</t>
+  </si>
+  <si>
+    <t>Au public d'accéder librement à l'ERP</t>
+  </si>
+  <si>
+    <t>Aux pompiers d'accéder à l'établissement</t>
+  </si>
+  <si>
+    <t>Aux véhicules de livraisons de stationner librement.</t>
+  </si>
+  <si>
+    <t>Les ERP sont classés par catégorie en fonction:</t>
+  </si>
+  <si>
+    <t>Du nombre maximum de personnes admises</t>
+  </si>
+  <si>
+    <t>Du nombre d'étages</t>
+  </si>
+  <si>
+    <t>Du nombre de locaux</t>
+  </si>
+  <si>
+    <t>Du nombre de sorties</t>
+  </si>
+  <si>
+    <t>Quel est le principe fondamental de sécurité en IGH ?</t>
+  </si>
+  <si>
+    <t>L'évacuation générale</t>
+  </si>
+  <si>
+    <t>L'extinction automatique</t>
+  </si>
+  <si>
+    <t>Combien de solutions de désenfumage sont expliquées dans le règlement de sécurité relatif aux IGH ?</t>
+  </si>
+  <si>
+    <t>1 solution</t>
+  </si>
+  <si>
+    <t>2 solutions</t>
+  </si>
+  <si>
+    <t>4 solutions</t>
+  </si>
+  <si>
+    <t>5 solutions</t>
+  </si>
+  <si>
+    <t>Quel est le rôle d'une Installation Fixe d'Extinction Automatique à Gaz?</t>
+  </si>
+  <si>
+    <t>Extraire les fumées</t>
+  </si>
+  <si>
+    <t>Éteindre un incendie à un stade précoce de son développement</t>
+  </si>
+  <si>
+    <t>Maintenir une concentration d'agent extincteur pour éviter une réinflammation</t>
+  </si>
+  <si>
+    <t>Évacuer au plus vite l'agent extincteur</t>
+  </si>
+  <si>
+    <t>Protéger des locaux</t>
+  </si>
+  <si>
+    <t>Indiquer ce que l'on doit inscrire sur la main courante ?</t>
+  </si>
+  <si>
+    <t>Les alarmes feu</t>
+  </si>
+  <si>
+    <t>Le nom des agents de sécurité incendie présents</t>
+  </si>
+  <si>
+    <t>Les départs et retours de ronde</t>
+  </si>
+  <si>
+    <t>L'heure d'arrivée et de départ du chef d'établissement</t>
+  </si>
+  <si>
+    <t>Les secours étant en route, vous constatez que la voie engin est occupée par un véhicule en panne. Que faites-vous en premier ?</t>
+  </si>
+  <si>
+    <t>Je pars à la recherche du propriétaire</t>
+  </si>
+  <si>
+    <t>J'informe le P.C Sécurité</t>
+  </si>
+  <si>
+    <t>Je cherche du renfort pour tenter de pousser le véhicule</t>
+  </si>
+  <si>
+    <t>J'appelle la police</t>
+  </si>
+  <si>
+    <t>Lors de l'utilisation d'un transpalette à gaz dans un local</t>
+  </si>
+  <si>
+    <t>A l'occasion de travaux par points chauds</t>
+  </si>
+  <si>
+    <t>A la mise en place d'une zone fumeur</t>
+  </si>
+  <si>
+    <t>Lors de la mise en fonction d'une chaudière gaz</t>
+  </si>
+  <si>
+    <t>Un poste central de sécurité est obligatoire en IGH ?</t>
+  </si>
+  <si>
+    <t>En fonction de l'activité principale</t>
+  </si>
+  <si>
+    <t>Dans tous les cas</t>
+  </si>
+  <si>
+    <t>Suivant l'avis de la commission de sécurité compétente</t>
+  </si>
+  <si>
+    <t>Suivant la volonté de l'exploitant</t>
+  </si>
+  <si>
+    <t>Où sont implantées les colonnes sèches dans un I.G.H ?</t>
+  </si>
+  <si>
+    <t>Dans les locaux communs</t>
+  </si>
+  <si>
+    <t>Dans les escaliers de secours</t>
+  </si>
+  <si>
+    <t>Dans les dispositifs d'intercommunication desservant les escaliers</t>
+  </si>
+  <si>
+    <t>Quel est le rôle d'une Installation Fixe d'Extinction Automatique à Gaz ?</t>
+  </si>
+  <si>
+    <t>Maintenir une concentration d'agent extincteur pour éviter une ré inflammation</t>
+  </si>
+  <si>
+    <t>Quelle est la distance d'attaque d'un extincteur portatif à CO² de 2 kilos ?</t>
+  </si>
+  <si>
+    <t>Un mètre environ.</t>
+  </si>
+  <si>
+    <t>2 à 3 mètres</t>
+  </si>
+  <si>
+    <t>3 à 4 mètres.</t>
+  </si>
+  <si>
+    <t>5 à 6 mètres.</t>
+  </si>
+  <si>
+    <t>Plus de 6 mètres.</t>
+  </si>
+  <si>
+    <t>Quels sont les dangers des fumées ?</t>
+  </si>
+  <si>
+    <t>Elles engendrent des intoxications</t>
+  </si>
+  <si>
+    <t>Elles favorisent le phénomène de panique</t>
+  </si>
+  <si>
+    <t>Elles désorientent les personnes par manque de visibilité</t>
+  </si>
+  <si>
+    <t>Elles provoquent l'effondrement du bâtiment</t>
+  </si>
+  <si>
+    <t>Les dispositifs de coupure d'urgence électrique doivent :</t>
+  </si>
+  <si>
+    <t>Être inaccessibles au public</t>
+  </si>
+  <si>
+    <t>Être accessibles au public</t>
+  </si>
+  <si>
+    <t>Faciles à atteindre par les services de secours</t>
+  </si>
+  <si>
+    <t>Inaccessibles et autopilotés</t>
+  </si>
+  <si>
+    <t>Quelle est la différence essentielle entre un S.S.I de catégorie A et un S.S.I de catégorie B ?</t>
+  </si>
+  <si>
+    <t>Les dispositifs actionnés de sécurité</t>
+  </si>
+  <si>
+    <t>Le système de détection d'incendie</t>
+  </si>
+  <si>
+    <t>L'équipement de sécurité incendie</t>
+  </si>
+  <si>
+    <t>Quel est le rôle de l'UGA ?</t>
+  </si>
+  <si>
+    <t>De donner des indications sur la position des DAS</t>
+  </si>
+  <si>
+    <t>De commander les DAS</t>
+  </si>
+  <si>
+    <t>De gérer le processus d'alarme</t>
+  </si>
+  <si>
+    <t>De réarmer le SSI</t>
+  </si>
+  <si>
+    <t>Un voyant rouge fixe sur l'US (unité de signalisation) indique ?</t>
+  </si>
+  <si>
+    <t>Une sensibilisation d'un D.A.Ι</t>
+  </si>
+  <si>
+    <t>Une zone en maintenance technique</t>
+  </si>
+  <si>
+    <t>Une zone mise hors service.</t>
+  </si>
+  <si>
+    <t>Tous les DAS sont en position de sécurité</t>
+  </si>
+  <si>
+    <t>Le plan schématique destiné à faciliter l'intervention des secours extérieurs doit au minimum se trouver :</t>
+  </si>
+  <si>
+    <t>Dans le bureau du chef d'établissement</t>
+  </si>
+  <si>
+    <t>A chaque entrée du bâtiment</t>
+  </si>
+  <si>
+    <t>Au PC sécurité</t>
+  </si>
+  <si>
+    <t>A l'accueil</t>
+  </si>
+  <si>
+    <t>Dans chaque local</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>A,B,E</t>
+  </si>
+  <si>
+    <t>A,C,D,E</t>
   </si>
 </sst>
 </file>
@@ -4625,7 +5297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4648,12 +5320,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4706,6 +5387,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5844,13 +6534,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9905,35 +10595,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="19" t="s">
         <v>1138</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="20" t="s">
         <v>1130</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="20" t="s">
         <v>1132</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="20" t="s">
         <v>1133</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="20" t="s">
         <v>1134</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="20" t="s">
         <v>1135</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I127" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K127" s="6" t="s">
+      <c r="J127" s="20"/>
+      <c r="K127" s="21" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10384,37 +11075,1584 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="20" t="s">
         <v>1279</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="20" t="s">
         <v>1280</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="20" t="s">
         <v>1281</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="20" t="s">
         <v>1282</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="20" t="s">
         <v>1283</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K143" s="6" t="s">
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="21" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G164" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H164" s="20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I164" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J164" s="20"/>
+      <c r="K164" s="21" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D179" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F179" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G179" s="20" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H179" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K182" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K191" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K193" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K308" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K306" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -10465,7 +12703,7 @@
   <dimension ref="A1:F993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10757,11 +12995,11 @@
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" ref="D13" si="1">B13 &amp; " (" &amp; E13 &amp; " questions)"</f>
-        <v xml:space="preserve"> (0 questions)</v>
+        <v xml:space="preserve"> (21 questions)</v>
       </c>
       <c r="E13" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A13)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>COUNTIF(Liste_Questions!$C:$C,"["&amp;LEFT($A13,4)&amp;"]*")</f>
@@ -10777,7 +13015,7 @@
       </c>
       <c r="E14" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10789,7 +13027,7 @@
       </c>
       <c r="E15" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A15)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11781,8 +14019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A188" activeCellId="1" sqref="A173:A186 A188:A194"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173:K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B391AF-E08D-41A1-9AA1-8ABF8309C0A7}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015D372E-C2A4-4AC6-9E24-4A31672A86B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="4" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="1510">
   <si>
     <t>UV</t>
   </si>
@@ -6536,7 +6536,7 @@
   </sheetPr>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12702,9 +12702,7 @@
   </sheetPr>
   <dimension ref="A1:F993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12767,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f t="shared" ref="D3:D12" si="0">B3 &amp; " (" &amp; E3 &amp; " questions) --- " &amp; C3 &amp; " questions à l'examen"</f>
+        <f t="shared" ref="D3:D13" si="0">B3 &amp; " (" &amp; E3 &amp; " questions) --- " &amp; C3 &amp; " questions à l'examen"</f>
         <v>Le Feu (9 questions) --- 4 questions à l'examen</v>
       </c>
       <c r="E3" s="8">
@@ -12990,12 +12988,15 @@
       <c r="A13" s="8" t="s">
         <v>243</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f t="shared" ref="D13" si="1">B13 &amp; " (" &amp; E13 &amp; " questions)"</f>
-        <v xml:space="preserve"> (21 questions)</v>
+        <f t="shared" si="0"/>
+        <v>Rôles et missions des agents (21 questions) --- 5 questions à l'examen</v>
       </c>
       <c r="E13" s="8">
         <f>COUNTIF(Liste_Questions!$A:$A,$A13)</f>

--- a/SSIAP_Questions_2025.xlsx
+++ b/SSIAP_Questions_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/JeuMotsSSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC50C5B-A31C-4D2D-8447-004B2137E964}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{F29703D0-0C8A-4C5D-A809-C6CD47C5F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED06BF2F-1BBD-44FB-B0E2-5317DCB7C4FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="4" r:id="rId1"/>
@@ -6533,11 +6533,11 @@
   </sheetPr>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A194" sqref="A194"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7338,35 +7338,36 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="21" t="s">
         <v>447</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -7763,32 +7764,34 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -8238,32 +8241,34 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="20" t="s">
         <v>742</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="20" t="s">
         <v>744</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21" t="s">
         <v>952</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -8643,32 +8648,34 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="20" t="s">
         <v>800</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L63" s="2" t="s">
@@ -9131,32 +9138,34 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9535,32 +9544,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="20" t="s">
         <v>944</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9769,8 +9780,8 @@
       <c r="I99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>1141</v>
+      <c r="K99" s="16" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -10014,32 +10025,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="20" t="s">
         <v>1033</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="20" t="s">
         <v>1034</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="20" t="s">
         <v>1035</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="20" t="s">
         <v>1037</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="21" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12699,7 +12712,7 @@
   </sheetPr>
   <dimension ref="A1:F993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12762,7 +12775,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f t="shared" ref="D3:D13" si="0">B3 &amp; " (" &amp; E3 &amp; " questions) --- " &amp; C3 &amp; " questions à l'examen"</f>
+        <f t="shared" ref="D3:D12" si="0">B3 &amp; " (" &amp; E3 &amp; " questions) --- " &amp; C3 &amp; " questions à l'examen"</f>
         <v>Le Feu (9 questions) --- 4 questions à l'examen</v>
       </c>
       <c r="E3" s="8">
@@ -14019,8 +14032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173:K225"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
